--- a/deep_fund.xlsx
+++ b/deep_fund.xlsx
@@ -29,6 +29,9 @@
     <t>종목</t>
   </si>
   <si>
+    <t>총점수</t>
+  </si>
+  <si>
     <t>업종</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
     <t>가격/수급</t>
   </si>
   <si>
-    <t>총점수</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
@@ -161,11 +161,11 @@
     <t>경쟁 우위 분석</t>
   </si>
   <si>
-    <t>2025년 7월 23일 기준으로, Taiwan Semiconductor Manufacturing (TSMC)의 중장기 핵심 경쟁 우위는 다음과 같습니다:
-TSMC의 핵심 경쟁 우위는 **독보적인 첨단 미세 공정 기술 리더십**과 이를 가능하게 하는 **막대한 R&amp;D 투자 및 수십 년간 축적된 기술 노하우**에 있습니다. 이는 후발 주자가 감히 넘볼 수 없는 **경쟁 불가능한 진입 장벽**을 형성하며, AI, 고성능 컴퓨팅 등 미래 핵심 산업의 필수 파트너로서 장기적인 시장 지배력을 유지할 것입니다.</t>
-  </si>
-  <si>
-    <t>2025년 7월 23일 기준 엔비디아의 중장기 핵심 경쟁 우위는 압도적인 GPU 기술력과 이를 뒷받침하는 독점적인 CUDA 소프트웨어 플랫폼에 기반한 강력한 생태계입니다. 이는 개발자들의 높은 전환 비용과 강력한 네트워크 효과를 유발하여 AI 시대의 사실상 표준(de facto standard)으로 자리매김했으며, 타 경쟁사의 진입을 극도로 어렵게 만들어 지속적인 시장 지배력을 유지할 것입니다.</t>
+    <t>2025년 7월 23일 기준, Taiwan Semiconductor Manufacturing Company (TSMC)는 **최첨단 파운드리 기술의 압도적 리더십과 막대한 자본 투자 및 기술 노하우가 요구되는 강력한 진입 장벽**을 구축하고 있습니다. 이러한 독점적 위치는 주요 고객사들의 높은 전환 비용과 깊은 협력 관계를 통해 향후에도 유지되며, 압도적인 시장 지위와 수익성을 보장하는 핵심 요인으로 투자 가치가 높습니다.</t>
+  </si>
+  <si>
+    <t>2025년 7월 23일 기준, NVIDIA Corporation의 중장기 핵심 경쟁 우위(Moat)는 다음과 같습니다.
+NVIDIA의 중장기 핵심 경쟁 우위는 AI 가속 컴퓨팅 시장의 사실상 표준이 된 독보적인 GPU 하드웨어와 이를 기반으로 하는 독점적인 CUDA 소프트웨어 플랫폼 및 견고한 개발자 생태계입니다. 이는 타의 추종을 불허하는 높은 진입 장벽과 강력한 네트워크 효과를 창출하여 향후에도 압도적인 시장 지배력과 높은 수익성 유지를 가능하게 합니다.</t>
   </si>
   <si>
     <t>최적화 기준</t>
@@ -271,6 +271,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -300,8 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -320,13 +324,13 @@
   <tableColumns count="9">
     <tableColumn id="1" name="티커"/>
     <tableColumn id="2" name="종목"/>
-    <tableColumn id="3" name="업종"/>
-    <tableColumn id="4" name="현재가"/>
-    <tableColumn id="5" name="1개월대비"/>
-    <tableColumn id="6" name="밸류에이션"/>
-    <tableColumn id="7" name="실적모멘텀"/>
-    <tableColumn id="8" name="가격/수급"/>
-    <tableColumn id="9" name="총점수"/>
+    <tableColumn id="3" name="총점수"/>
+    <tableColumn id="4" name="업종"/>
+    <tableColumn id="5" name="현재가"/>
+    <tableColumn id="6" name="1개월대비"/>
+    <tableColumn id="7" name="밸류에이션"/>
+    <tableColumn id="8" name="실적모멘텀"/>
+    <tableColumn id="9" name="가격/수급"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,8 +722,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -758,26 +763,26 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>234.6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>97</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>67</v>
-      </c>
-      <c r="I2">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -787,26 +792,26 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>167.03</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>24</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -816,26 +821,26 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>505.27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>87</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>50</v>
-      </c>
-      <c r="I4">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -845,26 +850,26 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>192.11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>44</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>41</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>75</v>
-      </c>
-      <c r="I5">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -874,26 +879,26 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>191.34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>37</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>41</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>75</v>
-      </c>
-      <c r="I6">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -903,26 +908,26 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>227.47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>51</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>83</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -932,26 +937,26 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>704.8099999999999</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>89</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>33</v>
-      </c>
-      <c r="I8">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -961,26 +966,26 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>332.11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>28</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>83</v>
-      </c>
-      <c r="I9">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -990,26 +995,26 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>278.59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>67</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1019,30 +1024,30 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>214.4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>44</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I11">
+  <conditionalFormatting sqref="C1:C11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1074,26 +1079,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1498,102 +1503,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>80</v>
       </c>
     </row>

--- a/deep_fund.xlsx
+++ b/deep_fund.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="708">
   <si>
     <t>티커</t>
   </si>
@@ -56,142 +56,2050 @@
     <t>TSM</t>
   </si>
   <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>NVO</t>
+  </si>
+  <si>
+    <t>IBN</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>BTI</t>
+  </si>
+  <si>
+    <t>SHEL</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
     <t>GOOG</t>
   </si>
   <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>BMO</t>
+  </si>
+  <si>
     <t>GOOGL</t>
   </si>
   <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>TTE</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>SNY</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>BUD</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>GEV</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
     <t>META</t>
   </si>
   <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>ENB</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>SNPS</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>BRK-A</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
     <t>AMZN</t>
   </si>
   <si>
-    <t>AAPL</t>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>SCCO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>SO</t>
   </si>
   <si>
     <t>BRK-B</t>
   </si>
   <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>RELX</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>SCHW</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
     <t>AVGO</t>
   </si>
   <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>MUFG</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>STRK</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
     <t>Taiwan Semiconductor Manufactur</t>
   </si>
   <si>
+    <t>PDD Holdings Inc.</t>
+  </si>
+  <si>
+    <t>NetEase, Inc.</t>
+  </si>
+  <si>
+    <t>Novo Nordisk A/S</t>
+  </si>
+  <si>
+    <t>ICICI Bank Limited</t>
+  </si>
+  <si>
+    <t>Sony Group Corporation</t>
+  </si>
+  <si>
+    <t>HSBC Holdings, plc.</t>
+  </si>
+  <si>
+    <t>Alibaba Group Holding Limited</t>
+  </si>
+  <si>
+    <t>British American Tobacco  Indus</t>
+  </si>
+  <si>
+    <t>Shell PLC</t>
+  </si>
+  <si>
+    <t>Progressive Corporation (The)</t>
+  </si>
+  <si>
+    <t>Airbnb, Inc.</t>
+  </si>
+  <si>
+    <t>Gilead Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>Toronto Dominion Bank (The)</t>
+  </si>
+  <si>
+    <t>HDFC Bank Limited</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corporation</t>
+  </si>
+  <si>
+    <t>Rio Tinto Plc</t>
+  </si>
+  <si>
+    <t>Royal Bank Of Canada</t>
+  </si>
+  <si>
+    <t>Merck &amp; Company, Inc.</t>
+  </si>
+  <si>
+    <t>Chubb Limited</t>
+  </si>
+  <si>
+    <t>Capital One Financial Corporati</t>
+  </si>
+  <si>
+    <t>Altria Group, Inc.</t>
+  </si>
+  <si>
+    <t>Petroleo Brasileiro S.A. Petrob</t>
+  </si>
+  <si>
     <t>Alphabet Inc.</t>
   </si>
   <si>
+    <t>UnitedHealth Group Incorporated</t>
+  </si>
+  <si>
+    <t>BP p.l.c.</t>
+  </si>
+  <si>
+    <t>McKesson Corporation</t>
+  </si>
+  <si>
+    <t>Bank Of Montreal</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corporation</t>
+  </si>
+  <si>
+    <t>TotalEnergies SE</t>
+  </si>
+  <si>
+    <t>Applied Materials, Inc.</t>
+  </si>
+  <si>
+    <t>The Cigna Group</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb Company</t>
+  </si>
+  <si>
+    <t>Accenture plc</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
     <t>NVIDIA Corporation</t>
   </si>
   <si>
+    <t>Unilever PLC</t>
+  </si>
+  <si>
+    <t>Amgen Inc.</t>
+  </si>
+  <si>
+    <t>Novartis AG</t>
+  </si>
+  <si>
+    <t>Pfizer, Inc.</t>
+  </si>
+  <si>
+    <t>Anheuser-Busch Inbev SA Sponsor</t>
+  </si>
+  <si>
+    <t>Ferrari N.V.</t>
+  </si>
+  <si>
+    <t>Salesforce, Inc.</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Sea Limited</t>
+  </si>
+  <si>
+    <t>AbbVie Inc.</t>
+  </si>
+  <si>
+    <t>Palantir Technologies Inc.</t>
+  </si>
+  <si>
+    <t>MercadoLibre, Inc.</t>
+  </si>
+  <si>
     <t>Microsoft Corporation</t>
   </si>
   <si>
+    <t>Trane Technologies plc</t>
+  </si>
+  <si>
+    <t>Cintas Corporation</t>
+  </si>
+  <si>
+    <t>Amphenol Corporation</t>
+  </si>
+  <si>
+    <t>Adobe Inc.</t>
+  </si>
+  <si>
+    <t>KKR &amp; Co. Inc.</t>
+  </si>
+  <si>
+    <t>Welltower Inc.</t>
+  </si>
+  <si>
+    <t>Arista Networks, Inc.</t>
+  </si>
+  <si>
+    <t>Applovin Corporation</t>
+  </si>
+  <si>
+    <t>QUALCOMM Incorporated</t>
+  </si>
+  <si>
+    <t>Parker-Hannifin Corporation</t>
+  </si>
+  <si>
+    <t>DoorDash, Inc.</t>
+  </si>
+  <si>
+    <t>Chevron Corporation</t>
+  </si>
+  <si>
+    <t>Prologis, Inc.</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc.</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Company (The)</t>
+  </si>
+  <si>
+    <t>PNC Financial Services Group, I</t>
+  </si>
+  <si>
+    <t>Eaton Corporation, PLC</t>
+  </si>
+  <si>
+    <t>GE Vernova Inc.</t>
+  </si>
+  <si>
+    <t>American Express Company</t>
+  </si>
+  <si>
+    <t>General Dynamics Corporation</t>
+  </si>
+  <si>
+    <t>Shopify Inc.</t>
+  </si>
+  <si>
+    <t>Fortinet, Inc.</t>
+  </si>
+  <si>
+    <t>Intuit Inc.</t>
+  </si>
+  <si>
+    <t>Lam Research Corporation</t>
+  </si>
+  <si>
     <t>Meta Platforms, Inc.</t>
   </si>
   <si>
+    <t>CME Group Inc.</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing, Inc.</t>
+  </si>
+  <si>
+    <t>Uber Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Caterpillar, Inc.</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corporation</t>
+  </si>
+  <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
+    <t>ServiceNow, Inc.</t>
+  </si>
+  <si>
+    <t>GE Aerospace</t>
+  </si>
+  <si>
+    <t>Brookfield Asset Management Inc</t>
+  </si>
+  <si>
+    <t>Tesla, Inc.</t>
+  </si>
+  <si>
+    <t>Moody's Corporation</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Corporation</t>
+  </si>
+  <si>
+    <t>Stryker Corporation</t>
+  </si>
+  <si>
+    <t>Spotify Technology S.A.</t>
+  </si>
+  <si>
+    <t>Lowe's Companies, Inc.</t>
+  </si>
+  <si>
+    <t>Arm Holdings plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apollo Global Management, Inc. </t>
+  </si>
+  <si>
+    <t>Mastercard Incorporated</t>
+  </si>
+  <si>
+    <t>Visa Inc.</t>
+  </si>
+  <si>
+    <t>Comcast Corporation</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc.</t>
+  </si>
+  <si>
+    <t>BlackRock, Inc.</t>
+  </si>
+  <si>
+    <t>Palo Alto Networks, Inc.</t>
+  </si>
+  <si>
+    <t>HCA Healthcare, Inc.</t>
+  </si>
+  <si>
+    <t>Aon plc</t>
+  </si>
+  <si>
+    <t>Enbridge Inc</t>
+  </si>
+  <si>
+    <t>Astrazeneca PLC</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific Inc</t>
+  </si>
+  <si>
+    <t>KLA Corporation</t>
+  </si>
+  <si>
+    <t>ASML Holding N.V. - New York Re</t>
+  </si>
+  <si>
+    <t>Analog Devices, Inc.</t>
+  </si>
+  <si>
+    <t>Fiserv, Inc.</t>
+  </si>
+  <si>
+    <t>RTX Corporation</t>
+  </si>
+  <si>
+    <t>Emerson Electric Company</t>
+  </si>
+  <si>
+    <t>Transdigm Group Incorporated</t>
+  </si>
+  <si>
+    <t>Arthur J. Gallagher &amp; Co.</t>
+  </si>
+  <si>
+    <t>Synopsys, Inc.</t>
+  </si>
+  <si>
+    <t>TJX Companies, Inc. (The)</t>
+  </si>
+  <si>
+    <t>Medtronic plc.</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway Inc.</t>
+  </si>
+  <si>
+    <t>Mondelez International, Inc.</t>
+  </si>
+  <si>
+    <t>American Tower Corporation (REI</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Booking Holdings Inc. Common St</t>
+  </si>
+  <si>
+    <t>Coinbase Global, Inc.</t>
+  </si>
+  <si>
+    <t>Netflix, Inc.</t>
+  </si>
+  <si>
+    <t>United Parcel Service, Inc.</t>
+  </si>
+  <si>
+    <t>Cadence Design Systems, Inc.</t>
+  </si>
+  <si>
+    <t>Apple Inc.</t>
+  </si>
+  <si>
+    <t>Oracle Corporation</t>
+  </si>
+  <si>
     <t>Amazon.com, Inc.</t>
   </si>
   <si>
-    <t>Apple Inc.</t>
+    <t>Walt Disney Company (The)</t>
+  </si>
+  <si>
+    <t>Waste Management, Inc.</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Inc.</t>
+  </si>
+  <si>
+    <t>SAP  SE</t>
+  </si>
+  <si>
+    <t>McDonald's Corporation</t>
+  </si>
+  <si>
+    <t>Blackstone Inc.</t>
+  </si>
+  <si>
+    <t>Royal Caribbean Cruises Ltd.</t>
+  </si>
+  <si>
+    <t>Robinhood Markets, Inc.</t>
+  </si>
+  <si>
+    <t>Constellation Energy Corporatio</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation</t>
+  </si>
+  <si>
+    <t>Southern Copper Corporation</t>
+  </si>
+  <si>
+    <t>Deere &amp; Company</t>
+  </si>
+  <si>
+    <t>Eli Lilly and Company</t>
+  </si>
+  <si>
+    <t>Marsh &amp; McLennan Companies, Inc</t>
+  </si>
+  <si>
+    <t>Nike, Inc.</t>
+  </si>
+  <si>
+    <t>Cisco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>Brookfield Corporation</t>
+  </si>
+  <si>
+    <t>Pepsico, Inc.</t>
+  </si>
+  <si>
+    <t>O'Reilly Automotive, Inc.</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical, Inc.</t>
+  </si>
+  <si>
+    <t>Equinix, Inc.</t>
+  </si>
+  <si>
+    <t>JP Morgan Chase &amp; Co.</t>
+  </si>
+  <si>
+    <t>Intercontinental Exchange Inc.</t>
+  </si>
+  <si>
+    <t>Linde plc</t>
+  </si>
+  <si>
+    <t>Southern Company (The)</t>
   </si>
   <si>
     <t>Berkshire Hathaway Inc. New</t>
   </si>
   <si>
+    <t>Union Pacific Corporation</t>
+  </si>
+  <si>
+    <t>CrowdStrike Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>RELX PLC PLC</t>
+  </si>
+  <si>
+    <t>Micron Technology, Inc.</t>
+  </si>
+  <si>
+    <t>T-Mobile US, Inc.</t>
+  </si>
+  <si>
+    <t>Danaher Corporation</t>
+  </si>
+  <si>
+    <t>Home Depot, Inc. (The)</t>
+  </si>
+  <si>
+    <t>Honeywell International Inc.</t>
+  </si>
+  <si>
+    <t>Texas Instruments Incorporated</t>
+  </si>
+  <si>
+    <t>UBS Group AG Registered</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Company</t>
+  </si>
+  <si>
+    <t>Thomson Reuters Corp</t>
+  </si>
+  <si>
+    <t>Charles Schwab Corporation (The</t>
+  </si>
+  <si>
+    <t>Sherwin-Williams Company (The)</t>
+  </si>
+  <si>
+    <t>Banco Santander, S.A. Sponsored</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria</t>
+  </si>
+  <si>
+    <t>Walmart Inc.</t>
+  </si>
+  <si>
+    <t>3M Company</t>
+  </si>
+  <si>
+    <t>Coca-Cola Company (The)</t>
+  </si>
+  <si>
+    <t>Bank of America Corporation</t>
+  </si>
+  <si>
     <t>Broadcom Inc.</t>
   </si>
   <si>
+    <t>Philip Morris International Inc</t>
+  </si>
+  <si>
+    <t>Citigroup, Inc.</t>
+  </si>
+  <si>
+    <t>Duke Energy Corporation (Holdin</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation</t>
+  </si>
+  <si>
+    <t>NextEra Energy, Inc.</t>
+  </si>
+  <si>
+    <t>Roblox Corporation</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corporation</t>
+  </si>
+  <si>
+    <t>Mitsubishi UFJ Financial Group,</t>
+  </si>
+  <si>
+    <t>Dell Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Vertex Pharmaceuticals Incorpor</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group, Inc. (The)</t>
+  </si>
+  <si>
+    <t>MicroStrategy Incorporated</t>
+  </si>
+  <si>
+    <t>Boeing Company (The)</t>
+  </si>
+  <si>
+    <t>MicroStrategy Incorporated - 8.</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
     <t>Semiconductors</t>
   </si>
   <si>
+    <t>Internet Retail</t>
+  </si>
+  <si>
+    <t>Electronic Gaming &amp; Multimedia</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Banks - Regional</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Banks - Diversified</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Integrated</t>
+  </si>
+  <si>
+    <t>Insurance - Property &amp; Casualty</t>
+  </si>
+  <si>
+    <t>Travel Services</t>
+  </si>
+  <si>
+    <t>Other Industrial Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
+  </si>
+  <si>
     <t>Internet Content &amp; Information</t>
   </si>
   <si>
+    <t>Healthcare Plans</t>
+  </si>
+  <si>
+    <t>Medical Distribution</t>
+  </si>
+  <si>
+    <t>Telecom Services</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>Semiconductor Equipment &amp; Materials</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Household &amp; Personal Products</t>
+  </si>
+  <si>
+    <t>Beverages - Brewers</t>
+  </si>
+  <si>
+    <t>Auto Manufacturers</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas E&amp;P</t>
+  </si>
+  <si>
     <t>Software - Infrastructure</t>
   </si>
   <si>
-    <t>Internet Retail</t>
-  </si>
-  <si>
-    <t>Consumer Electronics</t>
+    <t>Building Products &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Specialty Business Services</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <t>REIT - Healthcare Facilities</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Advertising Agencies</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>REIT - Industrial</t>
+  </si>
+  <si>
+    <t>Financial Data &amp; Stock Exchanges</t>
+  </si>
+  <si>
+    <t>Farm &amp; Heavy Construction Machinery</t>
+  </si>
+  <si>
+    <t>Discount Stores</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Home Improvement Retail</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
+  </si>
+  <si>
+    <t>Insurance Brokers</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Midstream</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Apparel Retail</t>
   </si>
   <si>
     <t>Insurance - Diversified</t>
   </si>
   <si>
+    <t>Confectioners</t>
+  </si>
+  <si>
+    <t>REIT - Specialty</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Integrated Freight &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Utilities - Renewable</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Footwear &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>Beverages - Non-Alcoholic</t>
+  </si>
+  <si>
+    <t>Auto Parts</t>
+  </si>
+  <si>
+    <t>Medical Instruments &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Specialty Chemicals</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated Electric</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+9.64%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (+12.01%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.93%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-2.58%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.35%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-4.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.97%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.84%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.46%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-5.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.79%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.12%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+11.27%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (-7.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-1.41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.89%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+11.32%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (+3.98%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-8.02%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-1.45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-10.19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.13%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+11.92%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (-0.41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+9.84%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-2.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.03%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-7.72%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+3.27%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (+9.99%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-3.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+15.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+12.49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+12.65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+27.24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.05%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.83%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.12%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (-1.85%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (+6.60%)</t>
+    <t xml:space="preserve"> (+2.46%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-1.97%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+14.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+15.41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-11.03%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-4.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.36%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+14.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-2.98%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-4.83%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.58%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-10.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.06%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-3.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+15.86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.97%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.46%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-11.48%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+16.06%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-10.88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-3.99%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-17.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+9.96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+12.73%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+9.21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-1.02%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+21.35%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.84%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-4.91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-9.66%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+9.38%)</t>
   </si>
   <si>
     <t xml:space="preserve"> (+6.41%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (+15.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.01%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.87%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-2.54%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+20.19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+19.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+24.05%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-6.16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.06%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+21.95%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.64%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+11.88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-7.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+7.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.01%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.53%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (-0.20%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (-2.03%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-7.38%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-1.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-11.62%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.95%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-10.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+16.15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+8.52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+11.01%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+3.01%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.51%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+0.34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.09%)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (+7.41%)</t>
   </si>
   <si>
+    <t xml:space="preserve"> (-10.26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+13.87%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+1.21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+13.16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+10.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+4.59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+6.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+5.03%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+15.05%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+2.54%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-8.00%)</t>
+  </si>
+  <si>
     <t>기업명</t>
   </si>
   <si>
     <t>경쟁 우위 분석</t>
   </si>
   <si>
-    <t>TSMC의 중장기 핵심 경쟁 우위는 반도체 제조 공정의 압도적인 기술 리더십과 이를 위한 막대한 R&amp;D 및 CAPEX 투자를 통한 높은 진입 장벽에 있습니다. 전 세계 주요 팹리스 기업들과의 깊은 협력 관계 및 파운드리 중립성, 그리고 탁월한 생산 효율성은 고객사의 높은 전환 비용을 유발하며 독점적 지위를 공고히 합니다.</t>
-  </si>
-  <si>
-    <t>Alphabet은 검색 및 YouTube의 강력한 네트워크 효과를 기반으로 독점적인 AI 기술과 방대한 사용자 데이터를 축적하여 압도적인 시장 지배력을 유지하고 있습니다. 이는 높은 브랜드 가치, 사용자 전환 비용, 그리고 규모의 경제를 동반하여 신규 경쟁자의 진입을 사실상 불가능하게 만드는 매우 강력한 해자를 형성합니다.</t>
-  </si>
-  <si>
-    <t>Alphabet의 핵심 경쟁 우위는 압도적인 네트워크 효과(검색, YouTube)와 강력한 무형 자산(글로벌 브랜드 인지도, 방대한 독점 데이터, 선도적인 AI 기술력)에 기반합니다. 이는 높은 전환 비용과 규모의 경제와 결합되어 지속적인 시장 지배력을 보장하며, 경쟁자가 넘보기 어려운 강력한 해자를 형성하고 있습니다.</t>
-  </si>
-  <si>
-    <t>엔비디아의 핵심 경쟁 우위는 독점적인 CUDA 플랫폼을 통한 강력한 생태계 잠금 효과와 높은 전환 비용입니다. 이는 광범위한 개발자 커뮤니티와 소프트웨어 스택을 통해 더욱 강화되며, AI 반도체 시장에서의 압도적인 기술 리더십과 규모의 경제가 더해져 타의 추종을 불허하는 진입 장벽을 구축합니다.</t>
-  </si>
-  <si>
-    <t>마이크로소프트의 핵심 경쟁 우위는 Windows, Office 365, Azure로 대표되는 강력하고 광범위한 소프트웨어 및 클라우드 생태계에서 비롯됩니다. 이는 기업 및 개인 사용자에게 높은 전환 비용을 유발하며, LinkedIn과 같은 플랫폼은 강력한 네트워크 효과를 제공합니다. 특히, OpenAI와의 독점적 파트너십을 통한 AI 기술 선도력은 모든 제품군에 코파일럿을 통합하며 기존 생태계를 더욱 공고히 하고 신규 진입을 어렵게 만듭니다.</t>
-  </si>
-  <si>
-    <t>Meta Platforms는 방대한 글로벌 사용자 기반에서 파생되는 강력한 네트워크 효과와 독보적인 데이터 우위를 기반으로 한 디지털 광고 시장 지배력을 핵심 경쟁 우위로 가집니다. AI 기술 투자를 통한 광고 효율성 증대 및 미래 플랫폼(메타버스)으로의 확장 가능성은 이러한 해자를 더욱 공고히 할 것입니다.</t>
-  </si>
-  <si>
-    <t>아마존의 중장기 핵심 경쟁 우위는 압도적인 규모의 경제를 기반으로 한 물류 인프라, 프라임 생태계를 통한 고객 락인 효과 및 강력한 네트워크 효과입니다. 특히 클라우드 컴퓨팅(AWS) 부문은 높은 전환 비용과 기술 리더십을 바탕으로 독점적 지위를 공고히 하고 있으며, 이 모든 요소가 상호 강화되며 강력한 진입 장벽을 구축합니다.</t>
-  </si>
-  <si>
-    <t>Apple의 중장기 핵심 경쟁 우위는 하드웨어, 소프트웨어, 서비스가 긴밀하게 통합된 독자적인 생태계에 있습니다. 이는 고객들에게 강력한 전환 비용을 발생시키고 높은 충성도를 유지하게 합니다. 또한, 상징적인 브랜드 가치, 뛰어난 제품 디자인, 그리고 자체 개발한 혁신적인 칩 기술이 결합되어 강력한 진입 장벽과 프리미엄 가격 결정력을 제공합니다.</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway의 중장기 핵심 경쟁 우위는 방대한 보험 사업에서 창출되는 저비용 자본(float)과 워렌 버핏이 구축한 탁월한 자본 배분 능력 및 신뢰의 문화에 있습니다. 이는 광범위하고 분산된 고품질 비즈니스 포트폴리오를 통해 강력한 진입 장벽을 형성하며, 시장 변동성에 강한 지속적인 수익 창출을 가능하게 합니다. 이러한 독보적인 기업 구조와 철학은 쉽게 모방할 수 없는 강력한 해자를 제공합니다.</t>
-  </si>
-  <si>
-    <t>Broadcom의 핵심 경쟁 우위는 반도체 및 엔터프라이즈 소프트웨어 부문에서 발생하는 매우 높은 **전환 비용**과 **광범위한 지적 재산권(IP)**에 기반합니다. 특히 VMware 인수를 통해 기업 고객의 핵심 IT 인프라에 깊이 통합되어 다른 솔루션으로의 교체가 매우 어렵고 비용이 많이 들며, 이는 강력한 진입 장벽으로 작용합니다. 또한 네트워킹 및 스토리지 반도체 분야의 독점적 기술과 규모의 경제 역시 지속적인 경쟁 우위를 제공합니다.</t>
+    <t>Taiwan Semiconductor Manufacturing Company (TSMC)는 초미세 공정 기술의 독보적인 리더십과 막대한 R&amp;D 투자를 통해 타의 추종을 불허하는 기술적 해자를 구축했습니다. 주요 팹리스 고객사들의 높은 전환 비용과 확고한 신뢰, 그리고 최상위 제조 수율 및 규모의 경제를 바탕으로 장기적인 경쟁 우위를 확고히 하며, 이는 글로벌 파운드리 시장에서의 지배적 지위를 유지하게 할 것입니다.</t>
+  </si>
+  <si>
+    <t>PDD Holdings의 핵심 경쟁 우위는 독자적인 C2M(Customer-to-Manufacturer) 모델을 기반으로 한 압도적인 가격 경쟁력과 효율적인 공급망 관리입니다. 이는 소셜 커머스 및 게임화된 사용자 경험을 통해 강력한 네트워크 효과를 창출하며, 데이터 및 AI 기반의 정교한 추천 시스템이 시너지를 일으켜 장기적인 시장 지배력을 확보하고 있습니다.</t>
+  </si>
+  <si>
+    <t>넷이즈는 강력한 자사 개발 및 재구축된 블리자드 라이선스 게임 IP를 통해 높은 사용자 전환 비용과 네트워크 효과를 창출하는 것이 핵심 경쟁 우위입니다. 중국 시장에 대한 깊은 이해와 탁월한 게임 개발 역량은 신규 진입자의 장벽을 높이고 장기적인 수익성을 확보하는 데 기여합니다.</t>
+  </si>
+  <si>
+    <t>Novo Nordisk의 중장기 핵심 경쟁 우위는 당뇨 및 비만 치료제 시장을 선도하는 강력한 특허 기반의 GLP-1 계열 의약품(오젬픽, 위고비) 포트폴리오에 있습니다. 이는 막대한 R&amp;D 투자와 규제 장벽으로 보호되며, 글로벌 브랜드 인지도와 신뢰를 바탕으로 견고한 시장 지배력을 유지할 것입니다.</t>
+  </si>
+  <si>
+    <t>HSBC Holdings의 중장기 핵심 경쟁 우위는 아시아 시장에 대한 깊은 이해와 광범위한 국제 네트워크를 통한 독보적인 규모의 경제에 있습니다. 특히 복잡한 글로벌 무역 금융 및 자산 관리 서비스에서 발생하는 높은 고객 전환 비용과 강력한 브랜드 가치, 그리고 엄격한 금융 규제 환경이 제공하는 높은 진입 장벽이 지속적인 경쟁 우위를 제공합니다.</t>
+  </si>
+  <si>
+    <t>Alibaba의 핵심 중장기 경쟁 우위는 거대한 규모와 강력한 네트워크 효과를 기반으로 한 통합된 디지털 생태계에 있습니다. 전자상거래 플랫폼, 물류 네트워크(Cainiao), 클라우드 컴퓨팅(Alibaba Cloud)이 긴밀하게 연결되어 있어 판매자에게 높은 전환 비용을 발생시키고, 방대한 데이터와 기술력은 진입 장벽으로 작용합니다.</t>
+  </si>
+  <si>
+    <t>Sony Group의 핵심 경쟁 우위는 PlayStation 기반의 강력한 게임 생태계, 방대한 음원/영상 지적재산권(IP), 그리고 글로벌 시장을 선도하는 이미지 센서 기술 및 제조 역량에 기반합니다. 이러한 요소들은 높은 고객 충성도, 진입 장벽, 그리고 규모의 경제를 제공하며 중장기적 수익성을 견인합니다.</t>
+  </si>
+  <si>
+    <t>ICICI Bank는 인도 내 광범위한 고객 및 유통 네트워크, 강력한 브랜드 신뢰도, 그리고 규모의 경제를 통해 매우 견고한 경쟁 우위를 확보하고 있습니다. 높은 고객 전환 비용과 엄격한 금융 규제는 신규 진입 장벽을 더욱 높여 중장기적인 시장 지배력을 유지할 것으로 예상됩니다.</t>
+  </si>
+  <si>
+    <t>British American Tobacco는 던힐, 럭키 스트라이크 등 강력한 글로벌 브랜드 포트폴리오와 광범위한 유통망을 통해 상당한 규모의 경제 및 가격 결정력을 확보하고 있습니다. 더불어, 담배 산업의 엄격한 규제 환경은 신규 진입을 극히 어렵게 만들어 기존 기업의 시장 지위를 공고히 하는 강력한 진입 장벽으로 작용합니다.</t>
+  </si>
+  <si>
+    <t>Shell PLC는 방대한 글로벌 규모의 통합된 업스트림 및 다운스트림 자산, 심층적인 기술 전문성, 그리고 규제 환경 및 에너지 전환에 대한 적응 능력을 바탕으로 강력한 진입 장벽과 규모의 경제를 통한 원가 경쟁 우위를 확보하고 있습니다. 이는 에너지 산업의 높은 자본 집약도와 장기적인 프로젝트 특성상 신규 진입자가 모방하기 매우 어려운 핵심 경쟁력입니다.</t>
+  </si>
+  <si>
+    <t>Progressive의 중장기 핵심 경쟁 우위는 독보적인 텔레매틱스 기반 데이터 분석 역량입니다. 이를 통해 정교한 위험 예측 및 가격 책정이 가능하여 우수한 손해율을 유지하며, 강력한 브랜드 인지도와 규모의 경제가 더해져 지속적인 경쟁 우위를 확보하고 있습니다.</t>
+  </si>
+  <si>
+    <t>HDFC Bank는 인도 최대 민간 은행으로서, HDFC Ltd.와의 성공적인 합병을 통해 압도적인 규모의 경제와 광범위한 유통망을 확보하여 신규 진입자의 진입 장벽을 매우 높였습니다. 또한, 강력한 브랜드 신뢰도와 높은 고객 전환 비용(Switching Cost)은 고객 이탈을 막고 안정적인 예금 기반을 유지하며, 금융 산업의 높은 규제 장벽은 중장기적인 경쟁 우위를 더욱 공고히 합니다. 이와 같은 다각적인 경쟁 우위 요소들이 복합적으로 작용하여 시장 지배력을 강화하고 있습니다.</t>
+  </si>
+  <si>
+    <t>에어비앤비의 핵심 경쟁 우위는 압도적인 글로벌 규모의 양면 시장(플랫폼) 네트워크 효과에서 나옵니다. 이는 더 많은 숙소 공급자가 더 많은 게스트를 유치하고, 이는 다시 더 많은 숙소 공급자를 끌어들이는 강력한 선순환을 형성합니다. 강력한 브랜드 인지도와 축적된 데이터 및 기술력을 바탕으로 높은 고객 충성도와 신규 경쟁자의 진입 장벽을 구축하고 있어 중장기적으로 안정적인 시장 지배력을 유지할 것으로 예상됩니다.</t>
+  </si>
+  <si>
+    <t>Gilead Sciences의 핵심 경쟁 우위는 HIV 및 항암 분야의 혁신적인 의약품 포트폴리오를 보호하는 강력한 특허권에 기반합니다. 또한, 복잡한 CAR-T 치료제 생산 능력과 지속적인 R&amp;D 투자를 통한 차세대 신약 개발 역량이 높은 진입 장벽을 형성하며 중장기적 수익성을 확보합니다.</t>
+  </si>
+  <si>
+    <t>Merck의 핵심 경쟁 우위는 키트루다(Keytruda) 및 가다실(Gardasil)과 같은 특허 보호를 받는 블록버스터 의약품의 강력한 포트폴리오에서 비롯됩니다. 이는 높은 전환 비용과 광범위한 시장 침투를 통해 공고화되며, 대규모 R&amp;D 역량과 글로벌 유통망이 혁신과 효율적인 시장 확장을 지속적으로 지원합니다. 2025년 7월 기준, 키트루다의 특허 만료가 임박한 도전 과제로 남아있지만, 현재까지는 견고한 경쟁 우위를 유지하고 있습니다.</t>
+  </si>
+  <si>
+    <t>Toronto Dominion Bank (TD)는 북미 전역의 강력한 브랜드 인지도, 광범위한 리테일 네트워크, 그리고 압도적인 규모의 경제를 통해 견고한 중장기 경쟁 우위를 확보하고 있습니다. 높은 고객 전환 비용과 엄격한 금융 규제는 신규 진입 장벽으로 작용하여, TD의 시장 지위와 수익성을 보호하는 강력한 해자를 형성합니다.</t>
+  </si>
+  <si>
+    <t>Altria Group의 핵심 경쟁 우위는 미국 담배 시장에서 독보적인 브랜드(말보로)를 기반으로 한 강력한 가격 결정력과 고객 충성도에 있습니다. 또한, FDA의 엄격한 규제 장벽과 광범위한 유통망은 신규 경쟁자 진입을 사실상 불가능하게 만듭니다. 이는 전통 담배 시장의 구조적 감소에도 불구하고 높은 수익성을 유지하고, NJOY 등 위해 저감 제품으로의 전환에 유리한 위치를 제공합니다.</t>
+  </si>
+  <si>
+    <t>Royal Bank of Canada는 캐나다 시장 내 강력한 규제 진입 장벽, 높은 고객 전환 비용, 그리고 압도적인 규모의 경제를 바탕으로 견고한 경쟁 우위를 확보하고 있습니다. 신뢰성 높은 브랜드 인지도와 광범위한 서비스 네트워크는 신규 진입자의 도전을 효과적으로 방어하며 지속적인 시장 지배력과 안정적인 수익 창출을 가능하게 합니다.</t>
+  </si>
+  <si>
+    <t>Capital One의 중장기 핵심 경쟁 우위는 신용카드 사업을 중심으로 한 방대한 규모의 경제와 강력한 브랜드 인지도에 기반합니다. 특히 선진적인 데이터 분석 및 신용 평가 역량은 다양한 고객군에 대한 효율적인 리스크 관리와 맞춤형 상품 제공을 가능하게 하여, 높은 고객 이탈 비용과 규제 환경이 결합되어 강력한 진입 장벽을 형성합니다.</t>
+  </si>
+  <si>
+    <t>Chubb의 핵심 경쟁 우위는 전 세계적으로 인정받는 강력한 브랜드 신뢰도와 최고 수준의 엄격한 보험 인수 규율에 기반합니다. 이는 광범위한 글로벌 유통망, 규모의 경제, 그리고 보험 산업 고유의 높은 규제 진입 장벽과 결합되어 다양한 고객층에 대해 상당한 전환 비용을 발생시키며 지속적인 경쟁 우위를 제공합니다.</t>
+  </si>
+  <si>
+    <t>Rio Tinto는 세계 최고 수준의 고품질, 대규모 광산 자원과 핵심 인프라(철도, 항만)를 통합 소유하여 독보적인 원가 우위를 확보하고 있습니다. 이는 막대한 초기 투자 비용, 복잡한 규제 승인, 지질학적 희귀성 등으로 신규 경쟁자의 진입을 사실상 불가능하게 만드는 강력한 해자를 형성합니다.</t>
+  </si>
+  <si>
+    <t>엑슨모빌의 중장기 핵심 경쟁 우위는 탐사부터 유통까지 아우르는 압도적인 글로벌 규모와 통합된 가치 사슬에 기반합니다. 이는 비교 불가능한 규모의 경제, 방대한 고품질 자원 확보 능력, 그리고 초대형 프로젝트 수행을 위한 독보적인 기술 전문성으로 발현되어 매우 강력한 진입 장벽과 지속적인 비용 우위를 창출합니다.</t>
+  </si>
+  <si>
+    <t>Bank Of Montreal은 캐나다 6대 은행으로서의 확고한 시장 지위와 미국 시장 확장을 통한 압도적인 규모의 경제를 바탕으로 강력한 경쟁 우위를 확보하고 있습니다. 이는 높은 고객 전환 비용, 광범위한 네트워크 효과, 그리고 규제에 의한 높은 진입 장벽에서 비롯됩니다. 장기간 축적된 브랜드 신뢰도와 다각화된 사업 포트폴리오 또한 핵심 경쟁력입니다.</t>
+  </si>
+  <si>
+    <t>BP의 핵심 경쟁 우위는 방대한 글로벌 에너지 인프라와 규모의 경제, 그리고 높은 산업 진입 장벽에 있습니다. 이는 안정적인 수익 기반을 제공하며, 저탄소 에너지 전환에 필요한 막대한 투자 자금과 대규모 프로젝트 관리 역량을 가능하게 하여 미래 에너지 시장에서의 강력한 입지를 구축합니다.</t>
+  </si>
+  <si>
+    <t>알파벳은 압도적인 시장 점유율을 가진 검색, 유튜브, 안드로이드 플랫폼을 통한 강력한 네트워크 효과와 방대한 데이터를 기반으로 한 독점적 AI 기술력을 핵심 경쟁 우위로 가집니다. 이는 규모의 경제 및 높은 사용자 전환 비용과 결합하여 신규 진입자의 경쟁을 효과적으로 차단하는 지속적인 독점력을 형성합니다.</t>
+  </si>
+  <si>
+    <t>McKesson Corporation은 거대한 규모의 경제를 통해 탁월한 비용 경쟁력을 확보하고 있으며, 이는 신규 진입자에게 높은 진입 장벽으로 작용합니다. 고객사(병원, 약국)의 시스템에 깊이 통합된 유통 및 기술 솔루션으로 인해 높은 전환 비용이 발생하여 고객 이탈이 어렵습니다. 또한, 엄격한 규제 환경은 사업 진입을 더욱 어렵게 만듭니다.</t>
+  </si>
+  <si>
+    <t>브리스톨마이어스스큅(BMS)의 중장기 핵심 경쟁 우위는 기존 블록버스터 의약품의 특허 만료(Patent Cliff)로 인해 도전받고 있습니다. 그러나 강력한 R&amp;D 역량과 광범위한 신약 파이프라인(특히 항암제, 면역학 분야)을 통해 혁신적인 치료제를 지속적으로 개발하고 상업화하는 능력이 새로운 핵심 경쟁력입니다. 또한, 전략적인 기업 인수를 통해 미래 성장 동력을 확보하려는 노력이 중요합니다.</t>
+  </si>
+  <si>
+    <t>TotalEnergies SE는 방대한 글로벌 사업 규모, 유정에서 최종 소비자까지 이르는 수직 통합된 가치 사슬, 그리고 LNG 및 신재생에너지 솔루션으로의 선제적 전환을 통해 강력한 중장기 경쟁 우위를 확보하고 있습니다. 이는 막대한 초기 자본과 기술력이 요구되는 에너지 산업에서 신규 진입을 어렵게 하며, 변화하는 에너지 시장에서도 지속적인 성장을 가능하게 하는 핵심 동력입니다.</t>
+  </si>
+  <si>
+    <t>페트로브라스의 중장기 핵심 경쟁 우위는 브라질 정부의 압도적인 소유권과 지원을 바탕으로 한 국내 에너지 시장 내 독점적 지위입니다. 이는 막대한 프레솔트(Pre-salt) 심해 유전의 독점적 접근권과 세계 최고 수준의 심해 탐사 및 생산 기술력, 그리고 광범위한 통합 인프라를 통해 강력한 진입 장벽을 구축하고 있습니다.</t>
+  </si>
+  <si>
+    <t>Alphabet의 중장기 핵심 경쟁 우위는 압도적인 시장 점유율을 바탕으로 한 **강력한 네트워크 효과**에서 비롯됩니다. 방대한 사용자 데이터를 활용한 **독점적인 AI 기반 알고리즘**과 고도화된 광고 플랫폼은 지속적인 서비스 개선을 가능하게 하며, 이는 높은 전환 비용과 강력한 브랜드 가치로 이어져 사실상 독점적인 지위를 공고히 합니다.</t>
+  </si>
+  <si>
+    <t>Cigna의 핵심 경쟁 우위는 PBM 사업부(Express Scripts)의 압도적인 규모에서 오는 비용 우위와 높은 고객 전환 비용에 있습니다. 광범위한 의료 서비스 네트워크와 복잡한 규제 환경 또한 강력한 진입 장벽으로 작용하여 장기적인 시장 지위를 유지하게 합니다.</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group의 중장기 핵심 경쟁 우위는 독보적인 규모의 경제와 수직적으로 통합된 사업 모델에서 비롯됩니다. 방대한 가입자 기반을 통해 협상력을 극대화하는 동시에, Optum 부문의 약국 관리(PBM), 의료 제공, 데이터 분석 및 기술 서비스는 높은 전환 비용과 강력한 시너지를 창출하여 경쟁사들이 모방하기 매우 어려운 진입 장벽을 구축합니다. 이 통합된 구조는 비용 효율성을 극대화하고 의료 서비스 전반에 걸쳐 강력한 통제력을 부여합니다.</t>
+  </si>
+  <si>
+    <t>록히드 마틴은 독점적인 첨단 기술력(스텔스, 미사일, 우주 시스템 등), 정부와의 장기적이고 밀접한 관계, 천문학적인 R&amp;D 비용 및 규제 승인이라는 진입 장벽을 통해 강력한 해자를 구축하고 있습니다. 주요 플랫폼(예: F-35)의 막대한 전환 비용과 지속적인 업그레이드 수요는 향후 수십 년간 안정적인 매출을 보장하며, 지정학적 불안정은 이러한 경쟁 우위를 더욱 공고히 할 것입니다.</t>
+  </si>
+  <si>
+    <t>Verizon Communications는 방대한 전국 규모의 네트워크 인프라(주파수, 기지국, 광섬유망) 구축에 필요한 막대한 자본 투자 및 엄격한 규제 환경이라는 강력한 진입 장벽을 통해 경쟁 우위를 확보하고 있습니다. 이는 신규 경쟁자의 시장 진입을 극도로 어렵게 만들며, 기존 고객의 높은 전환 비용과 브랜드 신뢰도가 결합되어 지속적인 시장 지배력을 유지하는 핵심 동력이 됩니다.</t>
+  </si>
+  <si>
+    <t>사노피의 중장기 핵심 경쟁 우위는 블록버스터 신약 '듀피젠트(Dupixent)'의 견고한 특허 보호와 독점적인 백신 사업 부문(Sanofi Pasteur)에서 비롯됩니다. 이는 높은 연구개발 역량, 엄격한 규제 승인, 대규모 생산 인프라 등 제약 산업의 높은 진입 장벽과 결합되어 강력한 해자를 구축합니다. 또한, 한번 처방된 의약품에 대한 환자와 의료 전문가의 높은 전환 비용도 중요한 경쟁 우위로 작용합니다.</t>
+  </si>
+  <si>
+    <t>Applied Materials는 반도체 장비 시장의 기술 선도 기업으로서 방대한 특허 포트폴리오와 막대한 R&amp;D 투자를 통해 복잡하고 필수적인 제조 공정 솔루션을 제공합니다. 고객사의 매우 높은 전환 비용과 장기간 구축된 긴밀한 파트너십이 강력한 해자로 작용하며, 이는 압도적인 규모의 경제와 글로벌 서비스 네트워크와 결합되어 지속적인 경쟁 우위를 제공합니다.</t>
+  </si>
+  <si>
+    <t>유니레버는 도브, 헬만즈 등 수많은 글로벌 리딩 브랜드를 기반으로 강력한 소비자 충성도와 가격 결정력을 확보하고 있습니다. 전 세계적인 유통망과 규모의 경제를 통한 압도적인 구매력 및 마케팅 효율성은 신규 경쟁자의 시장 진입을 어렵게 하는 매우 강력한 진입 장벽으로 작용합니다.</t>
+  </si>
+  <si>
+    <t>Novartis AG의 중장기 핵심 경쟁 우위는 막대한 R&amp;D 투자와 엄격한 규제 승인 과정을 통과할 수 있는 독점적인 혁신 신약 파이프라인에 있습니다. 특허로 보호받는 고부가가치 약물 포트폴리오는 강력한 가격 결정력과 시장 지배력을 부여하며, 글로벌 상업화 역량이 더해져 지속적인 수익 창출과 신규 경쟁자의 진입을 효과적으로 제한합니다.</t>
+  </si>
+  <si>
+    <t>Amgen은 강력한 특허 기반의 혁신 신약 포트폴리오와 전문화된 바이오 의약품 R&amp;D 역량을 바탕으로 중장기 경쟁 우위를 확보하고 있습니다. 복잡한 제조 기술 및 글로벌 유통망은 높은 진입 장벽을 형성하며, 지속적인 파이프라인 확장은 미래 성장 동력을 제공합니다.</t>
+  </si>
+  <si>
+    <t>Anheuser-Busch InBev의 중장기 핵심 경쟁 우위는 전 세계적인 규모의 경제와 타의 추종을 불허하는 유통망을 통해 확보되는 압도적인 비용 효율성입니다. 또한, 버드와이저, 코로나, 스텔라 아르투아 등 다수의 강력한 글로벌 브랜드 포트폴리오는 소비자 충성도와 가격 결정력을 강화하며 신규 진입자의 장벽을 높입니다. 이러한 독점적 위치는 지속적인 시장 지배력을 가능하게 합니다.</t>
+  </si>
+  <si>
+    <t>엔비디아의 중장기 핵심 경쟁 우위는 독보적인 GPU 하드웨어 기술 리더십과 이를 기반으로 한 강력한 CUDA 소프트웨어 플랫폼 및 개발자 생태계에 있습니다. 이는 AI 가속 컴퓨팅 시장에서 높은 전환 비용과 강력한 네트워크 효과를 창출하여 경쟁사의 진입을 어렵게 하고, 지속적인 시장 지배력을 유지하게 합니다.</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson은 강력한 특허 기반 지적 재산권, 의료 전문가 및 기관과의 깊은 신뢰 관계, 그리고 글로벌 규모의 방대한 유통 네트워크를 통해 압도적인 경쟁 우위를 확보하고 있습니다. 특히 제약 및 의료기기 부문에서 높은 연구개발 역량과 엄격한 규제 환경이 신규 진입을 어렵게 하며, 기존 고객의 전환 비용을 높여 장기적인 시장 지배력을 유지합니다.</t>
+  </si>
+  <si>
+    <t>Pfizer의 중장기 경쟁 우위는 강력한 R&amp;D 역량과 글로벌 규모의 특허 포트폴리오에 있습니다. 시젠(Seagen) 인수 등을 통한 혁신 신약 파이프라인 확보 능력, 압도적인 제조 및 유통 규모의 경제, 그리고 전 세계적인 상업화 역량이 결합되어 높은 진입 장벽을 형성하고 있습니다.</t>
+  </si>
+  <si>
+    <t>Sea Limited는 동남아시아 시장에서 Shopee의 강력한 네트워크 효과와 규모의 경제를 기반으로 독보적인 전자상거래 입지를 구축했으며, 이는 SeaMoney 핀테크 서비스의 성장을 견인하는 상호 연결된 생태계를 형성합니다. Free Fire를 필두로 한 Garena의 압도적인 게임 사용자 기반은 안정적인 현금 흐름과 잠재 고객 유입 통로를 제공하며, 이 통합된 생태계는 신규 경쟁자의 진입을 어렵게 하는 복합적인 진입 장벽으로 작용합니다.</t>
+  </si>
+  <si>
+    <t>ConocoPhillips의 핵심 경쟁 우위는 퍼미안 분지, 알래스카, 카타르 LNG 등 전 세계 주요 유전 및 가스전에 걸쳐 확보한 고품질, 저비용, 장수명 자산 포트폴리오에 있습니다. 이러한 방대하고 다각화된 자원 기반은 상당한 규모의 경제와 탄력적인 공급 비용 우위를 제공하며, 이는 신규 진입자에게 높은 진입 장벽으로 작용하여 장기적인 현금 흐름 안정성을 보장합니다.</t>
+  </si>
+  <si>
+    <t>Accenture는 강력한 브랜드 가치, 방대한 글로벌 인재 풀, 심층적인 산업 및 기술 전문성을 기반으로 한 고유의 지식 자산을 보유하고 있습니다. 고객사의 핵심 비즈니스에 깊이 통합되어 발생하는 높은 전환 비용과, 전 세계 대규모 프로젝트를 수행할 수 있는 규모의 경제는 강력한 진입 장벽을 형성하며, 디지털 전환 가속화 시대에 그 해자는 더욱 견고해질 것으로 예상됩니다.</t>
+  </si>
+  <si>
+    <t>페라리의 핵심 경쟁 우위는 타의 추종을 불허하는 브랜드 가치, 오랜 역사와 레이싱 헤리티지에서 비롯된 독점성에 있습니다. 이는 강력한 가격 결정력을 부여하며, 의도적인 한정 생산 및 최첨단 성능 기술력과의 결합으로 높은 재판매 가치를 유지하고 지속적인 수요를 창출하는 독보적인 지위를 구축합니다.</t>
+  </si>
+  <si>
+    <t>Palantir의 중장기 핵심 경쟁 우위는 독점적인 온톨로지 및 AI 플랫폼(AIP) 기술을 기반으로 한 매우 높은 **고객 전환 비용**에서 비롯됩니다. 고객사의 방대한 데이터를 심층적으로 통합하고 복잡한 의사결정 시스템을 구축함으로써, 일단 도입되면 다른 시스템으로의 전환이 극도로 어렵고 비싸지는 강력한 해자를 구축합니다. 또한, 오랜 기간 축적된 정부 및 핵심 산업 분야의 깊은 신뢰 관계와 특화된 전문성은 신규 경쟁자의 진입 장벽으로 작용합니다.</t>
+  </si>
+  <si>
+    <t>세일즈포스의 중장기 핵심 경쟁 우위는 핵심 비즈니스 프로세스에 깊이 통합되는 CRM 소프트웨어로 인해 발생하는 매우 높은 전환 비용입니다. 압도적인 시장 점유율과 강력한 브랜드 가치, 그리고 광범위한 클라우드 솔루션(Sales, Service, Marketing, Data Cloud, Slack, Tableau 등) 및 AI(Einstein) 기술 통합이 시너지를 창출하여 고객의 이탈을 어렵게 하고 지속적인 경쟁 우위를 제공합니다.</t>
+  </si>
+  <si>
+    <t>2025년 7월 기준 AbbVie의 중장기 핵심 경쟁 우위는 휴미라 의존도를 넘어선 강력한 포트폴리오 다각화에 있습니다. 스카이리치와 린보크 등 차세대 면역학 블록버스터의 견고한 특허 보호와 시장 지배력, 보톡스를 중심으로 한 미용 및 신경과학 분야의 강력한 브랜드 가치와 높은 전환 비용이 핵심입니다. 이는 지속적인 R&amp;D 역량과 시장 침투력을 바탕으로 합니다.</t>
   </si>
   <si>
     <t>최적화 기준</t>
@@ -291,8 +2199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
-  <autoFilter ref="A1:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J194" totalsRowShown="0">
+  <autoFilter ref="A1:J194"/>
   <tableColumns count="10">
     <tableColumn id="1" name="티커"/>
     <tableColumn id="2" name="종목"/>
@@ -310,8 +2218,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C51" totalsRowShown="0">
+  <autoFilter ref="A1:C51"/>
   <tableColumns count="3">
     <tableColumn id="1" name="기업명"/>
     <tableColumn id="2" name="경쟁 우위 분석"/>
@@ -322,8 +2230,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
     <tableColumn id="1" name="최적화 기준"/>
     <tableColumn id="2" name="티커"/>
@@ -334,8 +2242,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="최적화 기준"/>
     <tableColumn id="2" name="티커"/>
@@ -346,8 +2254,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="최적화 기준"/>
     <tableColumn id="2" name="티커"/>
@@ -358,8 +2266,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="최적화 기준"/>
     <tableColumn id="2" name="티커"/>
@@ -674,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,28 +2631,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="E2" s="1">
         <v>245.6</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -755,28 +2663,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>392</v>
       </c>
       <c r="E3" s="1">
-        <v>194.08</v>
+        <v>118.45</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -784,63 +2692,63 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="E4" s="1">
-        <v>194.08</v>
+        <v>135.48</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1">
-        <v>193.18</v>
+        <v>71.7</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -848,31 +2756,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>395</v>
       </c>
       <c r="E6" s="1">
-        <v>193.18</v>
+        <v>34.1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -880,230 +2788,6022 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>396</v>
       </c>
       <c r="E7" s="1">
-        <v>173.5</v>
+        <v>24.88</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>397</v>
       </c>
       <c r="E8" s="1">
-        <v>513.71</v>
+        <v>64.92</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="1">
+        <v>120.03</v>
+      </c>
+      <c r="F9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G9">
+        <v>97</v>
+      </c>
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>712.6799999999999</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>90</v>
-      </c>
       <c r="I9">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>398</v>
       </c>
       <c r="E10" s="1">
-        <v>231.44</v>
+        <v>52.25</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>399</v>
       </c>
       <c r="E11" s="1">
-        <v>213.88</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>465</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1">
-        <v>484.07</v>
+        <v>250.1</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="E13" s="1">
-        <v>290.18</v>
+        <v>141.31</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="1">
+        <v>74.93000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="1">
+        <v>77.84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G16">
+        <v>81</v>
+      </c>
+      <c r="H16">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="1">
+        <v>110.4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>471</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="1">
+        <v>132.05</v>
+      </c>
+      <c r="F19" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="1">
+        <v>84.70999999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20">
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>63</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="1">
+        <v>269.15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>475</v>
+      </c>
+      <c r="G21">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <v>53</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="1">
+        <v>212.85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22">
+        <v>88</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>43</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="1">
+        <v>59.84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E24" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>478</v>
+      </c>
+      <c r="G24">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" s="1">
+        <v>194.08</v>
+      </c>
+      <c r="F25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G25">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" s="1">
+        <v>194.08</v>
+      </c>
+      <c r="F26" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="1">
+        <v>281.06</v>
+      </c>
+      <c r="F27" t="s">
+        <v>480</v>
+      </c>
+      <c r="G27">
+        <v>76</v>
+      </c>
+      <c r="H27">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="1">
+        <v>32.2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28">
+        <v>83</v>
+      </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>57</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E29" s="1">
+        <v>711.8200000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="1">
+        <v>114.44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>483</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>57</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="1">
+        <v>193.18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>484</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43.08</v>
+      </c>
+      <c r="F32" t="s">
+        <v>485</v>
+      </c>
+      <c r="G32">
+        <v>72</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>36</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" s="1">
+        <v>421.17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>486</v>
+      </c>
+      <c r="G33">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>59</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="1">
+        <v>193.18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>484</v>
+      </c>
+      <c r="G34">
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="1">
+        <v>60.67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="1">
+        <v>185.69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>488</v>
+      </c>
+      <c r="G36">
+        <v>58</v>
+      </c>
+      <c r="H36">
+        <v>57</v>
+      </c>
+      <c r="I36">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>405</v>
+      </c>
+      <c r="E37" s="1">
+        <v>296.37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>489</v>
+      </c>
+      <c r="G37">
+        <v>78</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="1">
+        <v>48.43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>490</v>
+      </c>
+      <c r="G38">
+        <v>81</v>
+      </c>
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>43</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E39" s="1">
+        <v>283.15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>466</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>394</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50.37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>491</v>
+      </c>
+      <c r="G40">
+        <v>64</v>
+      </c>
+      <c r="H40">
+        <v>43</v>
+      </c>
+      <c r="I40">
+        <v>43</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E41" s="1">
+        <v>173.5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>492</v>
+      </c>
+      <c r="G41">
+        <v>31</v>
+      </c>
+      <c r="H41">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>71</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="1">
+        <v>60.43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>493</v>
+      </c>
+      <c r="G42">
+        <v>70</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E43" s="1">
+        <v>306.58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>494</v>
+      </c>
+      <c r="G43">
+        <v>64</v>
+      </c>
+      <c r="H43">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>43</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" s="1">
+        <v>117.7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>495</v>
+      </c>
+      <c r="G44">
+        <v>63</v>
+      </c>
+      <c r="H44">
+        <v>52</v>
+      </c>
+      <c r="I44">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>394</v>
+      </c>
+      <c r="E45" s="1">
+        <v>24.79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>496</v>
+      </c>
+      <c r="G45">
+        <v>69</v>
+      </c>
+      <c r="H45">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>497</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>55</v>
+      </c>
+      <c r="I46">
+        <v>36</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="1">
+        <v>517.65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>498</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>86</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>414</v>
+      </c>
+      <c r="E48" s="1">
+        <v>269.11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>499</v>
+      </c>
+      <c r="G48">
+        <v>54</v>
+      </c>
+      <c r="H48">
+        <v>62</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" s="1">
+        <v>94.95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>500</v>
+      </c>
+      <c r="G49">
+        <v>66</v>
+      </c>
+      <c r="H49">
+        <v>38</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>394</v>
+      </c>
+      <c r="E50" s="1">
+        <v>168.3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>501</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <v>79</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="1">
+        <v>157.71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>502</v>
+      </c>
+      <c r="G51">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>59</v>
+      </c>
+      <c r="I51">
+        <v>86</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="1">
+        <v>190.28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>503</v>
+      </c>
+      <c r="G52">
+        <v>54</v>
+      </c>
+      <c r="H52">
+        <v>40</v>
+      </c>
+      <c r="I52">
+        <v>36</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>416</v>
+      </c>
+      <c r="E53" s="1">
+        <v>158.8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>504</v>
+      </c>
+      <c r="G53">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <v>62</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2362.56</v>
+      </c>
+      <c r="F54" t="s">
+        <v>505</v>
+      </c>
+      <c r="G54">
+        <v>44</v>
+      </c>
+      <c r="H54">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E55" s="1">
+        <v>513.71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>506</v>
+      </c>
+      <c r="G55">
+        <v>31</v>
+      </c>
+      <c r="H55">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>57</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E56" s="1">
+        <v>472.07</v>
+      </c>
+      <c r="F56" t="s">
+        <v>507</v>
+      </c>
+      <c r="G56">
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <v>85</v>
+      </c>
+      <c r="I56">
+        <v>86</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="1">
+        <v>223.56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>508</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>79</v>
+      </c>
+      <c r="I57">
+        <v>64</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>419</v>
+      </c>
+      <c r="E58" s="1">
+        <v>105.02</v>
+      </c>
+      <c r="F58" t="s">
+        <v>509</v>
+      </c>
+      <c r="G58">
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <v>78</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>414</v>
+      </c>
+      <c r="E59" s="1">
+        <v>370.74</v>
+      </c>
+      <c r="F59" t="s">
+        <v>510</v>
+      </c>
+      <c r="G59">
+        <v>46</v>
+      </c>
+      <c r="H59">
+        <v>69</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>420</v>
+      </c>
+      <c r="E60" s="1">
+        <v>152.16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>511</v>
+      </c>
+      <c r="G60">
+        <v>53</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>79</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61">
+        <v>37</v>
+      </c>
+      <c r="D61" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" s="1">
+        <v>161.56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>512</v>
+      </c>
+      <c r="G61">
+        <v>34</v>
+      </c>
+      <c r="H61">
+        <v>67</v>
+      </c>
+      <c r="I61">
+        <v>64</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>422</v>
+      </c>
+      <c r="E62" s="1">
+        <v>114.28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>513</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>423</v>
+      </c>
+      <c r="E63" s="1">
+        <v>364.14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>514</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>74</v>
+      </c>
+      <c r="I63">
+        <v>86</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" s="1">
+        <v>158.4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64">
+        <v>47</v>
+      </c>
+      <c r="H64">
+        <v>55</v>
+      </c>
+      <c r="I64">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65" s="1">
+        <v>738.8200000000001</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65">
+        <v>23</v>
+      </c>
+      <c r="H65">
+        <v>92</v>
+      </c>
+      <c r="I65">
+        <v>57</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="1">
+        <v>249.92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>517</v>
+      </c>
+      <c r="G66">
+        <v>38</v>
+      </c>
+      <c r="H66">
+        <v>55</v>
+      </c>
+      <c r="I66">
+        <v>57</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>399</v>
+      </c>
+      <c r="E67" s="1">
+        <v>154.84</v>
+      </c>
+      <c r="F67" t="s">
+        <v>518</v>
+      </c>
+      <c r="G67">
+        <v>48</v>
+      </c>
+      <c r="H67">
+        <v>40</v>
+      </c>
+      <c r="I67">
+        <v>36</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>425</v>
+      </c>
+      <c r="E68" s="1">
+        <v>110.29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68">
+        <v>39</v>
+      </c>
+      <c r="H68">
+        <v>59</v>
+      </c>
+      <c r="I68">
+        <v>43</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="1">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69">
+        <v>58</v>
+      </c>
+      <c r="H69">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <v>36</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>411</v>
+      </c>
+      <c r="E70" s="1">
+        <v>158.3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70">
+        <v>44</v>
+      </c>
+      <c r="H70">
+        <v>64</v>
+      </c>
+      <c r="I70">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71" s="1">
+        <v>196.05</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71">
+        <v>42</v>
+      </c>
+      <c r="H71">
+        <v>43</v>
+      </c>
+      <c r="I71">
+        <v>57</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" s="1">
+        <v>392.17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>523</v>
+      </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>76</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>424</v>
+      </c>
+      <c r="E73" s="1">
+        <v>644.59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>524</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" s="1">
+        <v>311.61</v>
+      </c>
+      <c r="F74" t="s">
+        <v>525</v>
+      </c>
+      <c r="G74">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>53</v>
+      </c>
+      <c r="I74">
+        <v>43</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="1">
+        <v>314.02</v>
+      </c>
+      <c r="F75" t="s">
+        <v>526</v>
+      </c>
+      <c r="G75">
+        <v>31</v>
+      </c>
+      <c r="H75">
+        <v>67</v>
+      </c>
+      <c r="I75">
+        <v>57</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="1">
+        <v>124.43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76">
+        <v>29</v>
+      </c>
+      <c r="H76">
+        <v>47</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>416</v>
+      </c>
+      <c r="E77" s="1">
+        <v>104.82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>528</v>
+      </c>
+      <c r="G77">
+        <v>24</v>
+      </c>
+      <c r="H77">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>64</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>414</v>
+      </c>
+      <c r="E78" s="1">
+        <v>785.95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>529</v>
+      </c>
+      <c r="G78">
+        <v>23</v>
+      </c>
+      <c r="H78">
+        <v>86</v>
+      </c>
+      <c r="I78">
+        <v>57</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" s="1">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>530</v>
+      </c>
+      <c r="G79">
+        <v>38</v>
+      </c>
+      <c r="H79">
+        <v>54</v>
+      </c>
+      <c r="I79">
+        <v>43</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>404</v>
+      </c>
+      <c r="E80" s="1">
+        <v>712.6799999999999</v>
+      </c>
+      <c r="F80" t="s">
+        <v>531</v>
+      </c>
+      <c r="G80">
+        <v>30</v>
+      </c>
+      <c r="H80">
+        <v>76</v>
+      </c>
+      <c r="I80">
+        <v>43</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>426</v>
+      </c>
+      <c r="E81" s="1">
+        <v>279.55</v>
+      </c>
+      <c r="F81" t="s">
+        <v>532</v>
+      </c>
+      <c r="G81">
+        <v>31</v>
+      </c>
+      <c r="H81">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>36</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>414</v>
+      </c>
+      <c r="E82" s="1">
+        <v>308.63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>533</v>
+      </c>
+      <c r="G82">
+        <v>29</v>
+      </c>
+      <c r="H82">
+        <v>87</v>
+      </c>
+      <c r="I82">
+        <v>21</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>414</v>
+      </c>
+      <c r="E83" s="1">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="F83" t="s">
+        <v>534</v>
+      </c>
+      <c r="G83">
+        <v>30</v>
+      </c>
+      <c r="H83">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>43</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>427</v>
+      </c>
+      <c r="E84" s="1">
+        <v>433.75</v>
+      </c>
+      <c r="F84" t="s">
+        <v>535</v>
+      </c>
+      <c r="G84">
+        <v>17</v>
+      </c>
+      <c r="H84">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="1">
+        <v>569.74</v>
+      </c>
+      <c r="F85" t="s">
+        <v>536</v>
+      </c>
+      <c r="G85">
+        <v>23</v>
+      </c>
+      <c r="H85">
+        <v>57</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>410</v>
+      </c>
+      <c r="E86" s="1">
+        <v>259.72</v>
+      </c>
+      <c r="F86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G86">
+        <v>36</v>
+      </c>
+      <c r="H86">
+        <v>63</v>
+      </c>
+      <c r="I86">
+        <v>21</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" s="1">
+        <v>968.79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>538</v>
+      </c>
+      <c r="G87">
+        <v>32</v>
+      </c>
+      <c r="H87">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="1">
+        <v>271.59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>539</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>420</v>
+      </c>
+      <c r="E89" s="1">
+        <v>63.02</v>
+      </c>
+      <c r="F89" t="s">
+        <v>540</v>
+      </c>
+      <c r="G89">
+        <v>26</v>
+      </c>
+      <c r="H89">
+        <v>45</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>413</v>
+      </c>
+      <c r="E90" s="1">
+        <v>316.06</v>
+      </c>
+      <c r="F90" t="s">
+        <v>541</v>
+      </c>
+      <c r="G90">
+        <v>36</v>
+      </c>
+      <c r="H90">
+        <v>40</v>
+      </c>
+      <c r="I90">
+        <v>64</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91">
+        <v>32</v>
+      </c>
+      <c r="D91" t="s">
+        <v>426</v>
+      </c>
+      <c r="E91" s="1">
+        <v>512.95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>542</v>
+      </c>
+      <c r="G91">
+        <v>25</v>
+      </c>
+      <c r="H91">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>57</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s">
+        <v>428</v>
+      </c>
+      <c r="E92" s="1">
+        <v>935.48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>543</v>
+      </c>
+      <c r="G92">
+        <v>29</v>
+      </c>
+      <c r="H92">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>21</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" s="1">
+        <v>403.53</v>
+      </c>
+      <c r="F93" t="s">
+        <v>544</v>
+      </c>
+      <c r="G93">
+        <v>28</v>
+      </c>
+      <c r="H93">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>36</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="1">
+        <v>693.1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>545</v>
+      </c>
+      <c r="G94">
+        <v>32</v>
+      </c>
+      <c r="H94">
+        <v>60</v>
+      </c>
+      <c r="I94">
+        <v>43</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" s="1">
+        <v>226.8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>546</v>
+      </c>
+      <c r="G95">
+        <v>38</v>
+      </c>
+      <c r="H95">
+        <v>57</v>
+      </c>
+      <c r="I95">
+        <v>14</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>391</v>
+      </c>
+      <c r="E96" s="1">
+        <v>163.17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>547</v>
+      </c>
+      <c r="G96">
+        <v>30</v>
+      </c>
+      <c r="H96">
+        <v>38</v>
+      </c>
+      <c r="I96">
+        <v>86</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" s="1">
+        <v>151.13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>548</v>
+      </c>
+      <c r="G97">
+        <v>26</v>
+      </c>
+      <c r="H97">
+        <v>71</v>
+      </c>
+      <c r="I97">
+        <v>36</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>403</v>
+      </c>
+      <c r="E98" s="1">
+        <v>568.22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>549</v>
+      </c>
+      <c r="G98">
+        <v>18</v>
+      </c>
+      <c r="H98">
+        <v>92</v>
+      </c>
+      <c r="I98">
+        <v>36</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>403</v>
+      </c>
+      <c r="E99" s="1">
+        <v>357.04</v>
+      </c>
+      <c r="F99" t="s">
+        <v>550</v>
+      </c>
+      <c r="G99">
+        <v>23</v>
+      </c>
+      <c r="H99">
+        <v>78</v>
+      </c>
+      <c r="I99">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="1">
+        <v>33.68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>551</v>
+      </c>
+      <c r="G100">
+        <v>37</v>
+      </c>
+      <c r="H100">
+        <v>62</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>391</v>
+      </c>
+      <c r="E101" s="1">
+        <v>166.47</v>
+      </c>
+      <c r="F101" t="s">
+        <v>552</v>
+      </c>
+      <c r="G101">
+        <v>26</v>
+      </c>
+      <c r="H101">
+        <v>33</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>420</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1123.28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G102">
+        <v>23</v>
+      </c>
+      <c r="H102">
+        <v>66</v>
+      </c>
+      <c r="I102">
+        <v>57</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>416</v>
+      </c>
+      <c r="E103" s="1">
+        <v>203.27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>554</v>
+      </c>
+      <c r="G103">
+        <v>29</v>
+      </c>
+      <c r="H103">
+        <v>62</v>
+      </c>
+      <c r="I103">
+        <v>36</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>431</v>
+      </c>
+      <c r="E104" s="1">
+        <v>334.32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>555</v>
+      </c>
+      <c r="G104">
+        <v>36</v>
+      </c>
+      <c r="H104">
+        <v>52</v>
+      </c>
+      <c r="I104">
+        <v>21</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>432</v>
+      </c>
+      <c r="E105" s="1">
+        <v>372.89</v>
+      </c>
+      <c r="F105" t="s">
+        <v>556</v>
+      </c>
+      <c r="G105">
+        <v>19</v>
+      </c>
+      <c r="H105">
+        <v>82</v>
+      </c>
+      <c r="I105">
+        <v>43</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>433</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44.97</v>
+      </c>
+      <c r="F106" t="s">
+        <v>557</v>
+      </c>
+      <c r="G106">
+        <v>27</v>
+      </c>
+      <c r="H106">
+        <v>53</v>
+      </c>
+      <c r="I106">
+        <v>64</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>394</v>
+      </c>
+      <c r="E107" s="1">
+        <v>72.66</v>
+      </c>
+      <c r="F107" t="s">
+        <v>558</v>
+      </c>
+      <c r="G107">
+        <v>27</v>
+      </c>
+      <c r="H107">
+        <v>64</v>
+      </c>
+      <c r="I107">
+        <v>36</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>434</v>
+      </c>
+      <c r="E108" s="1">
+        <v>478.32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>559</v>
+      </c>
+      <c r="G108">
+        <v>29</v>
+      </c>
+      <c r="H108">
+        <v>51</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" s="1">
+        <v>902.09</v>
+      </c>
+      <c r="F109" t="s">
+        <v>560</v>
+      </c>
+      <c r="G109">
+        <v>19</v>
+      </c>
+      <c r="H109">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>43</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="1">
+        <v>711.25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>561</v>
+      </c>
+      <c r="G110">
+        <v>31</v>
+      </c>
+      <c r="H110">
+        <v>64</v>
+      </c>
+      <c r="I110">
+        <v>21</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>391</v>
+      </c>
+      <c r="E111" s="1">
+        <v>227.82</v>
+      </c>
+      <c r="F111" t="s">
+        <v>562</v>
+      </c>
+      <c r="G111">
+        <v>34</v>
+      </c>
+      <c r="H111">
+        <v>44</v>
+      </c>
+      <c r="I111">
+        <v>43</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="D112" t="s">
+        <v>410</v>
+      </c>
+      <c r="E112" s="1">
+        <v>142.03</v>
+      </c>
+      <c r="F112" t="s">
+        <v>563</v>
+      </c>
+      <c r="G112">
+        <v>36</v>
+      </c>
+      <c r="H112">
+        <v>60</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>408</v>
+      </c>
+      <c r="E113" s="1">
+        <v>156.88</v>
+      </c>
+      <c r="F113" t="s">
+        <v>564</v>
+      </c>
+      <c r="G113">
+        <v>19</v>
+      </c>
+      <c r="H113">
+        <v>54</v>
+      </c>
+      <c r="I113">
+        <v>86</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="1">
+        <v>149.63</v>
+      </c>
+      <c r="F114" t="s">
+        <v>565</v>
+      </c>
+      <c r="G114">
+        <v>18</v>
+      </c>
+      <c r="H114">
+        <v>48</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>408</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1607.45</v>
+      </c>
+      <c r="F115" t="s">
+        <v>566</v>
+      </c>
+      <c r="G115">
+        <v>15</v>
+      </c>
+      <c r="H115">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>57</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>432</v>
+      </c>
+      <c r="E116" s="1">
+        <v>315.14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>567</v>
+      </c>
+      <c r="G116">
+        <v>21</v>
+      </c>
+      <c r="H116">
+        <v>68</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>416</v>
+      </c>
+      <c r="E117" s="1">
+        <v>601.55</v>
+      </c>
+      <c r="F117" t="s">
+        <v>568</v>
+      </c>
+      <c r="G117">
+        <v>14</v>
+      </c>
+      <c r="H117">
+        <v>56</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="1">
+        <v>126.44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>569</v>
+      </c>
+      <c r="G118">
+        <v>15</v>
+      </c>
+      <c r="H118">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>64</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" s="1">
+        <v>92.94</v>
+      </c>
+      <c r="F119" t="s">
+        <v>570</v>
+      </c>
+      <c r="G119">
+        <v>28</v>
+      </c>
+      <c r="H119">
+        <v>40</v>
+      </c>
+      <c r="I119">
+        <v>64</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>436</v>
+      </c>
+      <c r="E120" s="1">
+        <v>726220</v>
+      </c>
+      <c r="F120" t="s">
+        <v>571</v>
+      </c>
+      <c r="G120">
+        <v>23</v>
+      </c>
+      <c r="H120">
+        <v>49</v>
+      </c>
+      <c r="I120">
+        <v>64</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>317</v>
+      </c>
+      <c r="C121">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>437</v>
+      </c>
+      <c r="E121" s="1">
+        <v>70.58</v>
+      </c>
+      <c r="F121" t="s">
+        <v>572</v>
+      </c>
+      <c r="G121">
+        <v>18</v>
+      </c>
+      <c r="H121">
+        <v>61</v>
+      </c>
+      <c r="I121">
+        <v>64</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>438</v>
+      </c>
+      <c r="E122" s="1">
+        <v>229.87</v>
+      </c>
+      <c r="F122" t="s">
+        <v>467</v>
+      </c>
+      <c r="G122">
+        <v>18</v>
+      </c>
+      <c r="H122">
+        <v>61</v>
+      </c>
+      <c r="I122">
+        <v>64</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>429</v>
+      </c>
+      <c r="E123" s="1">
+        <v>126.54</v>
+      </c>
+      <c r="F123" t="s">
+        <v>573</v>
+      </c>
+      <c r="G123">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>64</v>
+      </c>
+      <c r="I123">
+        <v>21</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+      <c r="E124" s="1">
+        <v>5632.27</v>
+      </c>
+      <c r="F124" t="s">
+        <v>574</v>
+      </c>
+      <c r="G124">
+        <v>17</v>
+      </c>
+      <c r="H124">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>43</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>426</v>
+      </c>
+      <c r="E125" s="1">
+        <v>391.66</v>
+      </c>
+      <c r="F125" t="s">
+        <v>575</v>
+      </c>
+      <c r="G125">
+        <v>31</v>
+      </c>
+      <c r="H125">
+        <v>33</v>
+      </c>
+      <c r="I125">
+        <v>57</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C126">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>439</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1180.49</v>
+      </c>
+      <c r="F126" t="s">
+        <v>576</v>
+      </c>
+      <c r="G126">
+        <v>22</v>
+      </c>
+      <c r="H126">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>21</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>440</v>
+      </c>
+      <c r="E127" s="1">
+        <v>103.56</v>
+      </c>
+      <c r="F127" t="s">
+        <v>577</v>
+      </c>
+      <c r="G127">
+        <v>41</v>
+      </c>
+      <c r="H127">
+        <v>28</v>
+      </c>
+      <c r="I127">
+        <v>14</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>414</v>
+      </c>
+      <c r="E128" s="1">
+        <v>332.19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>578</v>
+      </c>
+      <c r="G128">
+        <v>23</v>
+      </c>
+      <c r="H128">
+        <v>61</v>
+      </c>
+      <c r="I128">
+        <v>36</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" s="1">
+        <v>213.88</v>
+      </c>
+      <c r="F129" t="s">
+        <v>579</v>
+      </c>
+      <c r="G129">
+        <v>18</v>
+      </c>
+      <c r="H129">
+        <v>66</v>
+      </c>
+      <c r="I129">
+        <v>43</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>326</v>
+      </c>
+      <c r="C130">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>416</v>
+      </c>
+      <c r="E130" s="1">
+        <v>245.12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>580</v>
+      </c>
+      <c r="G130">
+        <v>11</v>
+      </c>
+      <c r="H130">
+        <v>70</v>
+      </c>
+      <c r="I130">
+        <v>71</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>327</v>
+      </c>
+      <c r="C131">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
+        <v>392</v>
+      </c>
+      <c r="E131" s="1">
+        <v>231.44</v>
+      </c>
+      <c r="F131" t="s">
+        <v>522</v>
+      </c>
+      <c r="G131">
+        <v>18</v>
+      </c>
+      <c r="H131">
+        <v>60</v>
+      </c>
+      <c r="I131">
+        <v>57</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>439</v>
+      </c>
+      <c r="E132" s="1">
+        <v>121.47</v>
+      </c>
+      <c r="F132" t="s">
+        <v>581</v>
+      </c>
+      <c r="G132">
+        <v>23</v>
+      </c>
+      <c r="H132">
+        <v>56</v>
+      </c>
+      <c r="I132">
+        <v>43</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>329</v>
+      </c>
+      <c r="C133">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>441</v>
+      </c>
+      <c r="E133" s="1">
+        <v>229.67</v>
+      </c>
+      <c r="F133" t="s">
+        <v>582</v>
+      </c>
+      <c r="G133">
+        <v>14</v>
+      </c>
+      <c r="H133">
+        <v>66</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>426</v>
+      </c>
+      <c r="E134" s="1">
+        <v>534.95</v>
+      </c>
+      <c r="F134" t="s">
+        <v>583</v>
+      </c>
+      <c r="G134">
+        <v>25</v>
+      </c>
+      <c r="H134">
+        <v>63</v>
+      </c>
+      <c r="I134">
+        <v>21</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="1">
+        <v>288.03</v>
+      </c>
+      <c r="F135" t="s">
+        <v>584</v>
+      </c>
+      <c r="G135">
+        <v>29</v>
+      </c>
+      <c r="H135">
+        <v>50</v>
+      </c>
+      <c r="I135">
+        <v>21</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>442</v>
+      </c>
+      <c r="E136" s="1">
+        <v>298.47</v>
+      </c>
+      <c r="F136" t="s">
+        <v>585</v>
+      </c>
+      <c r="G136">
+        <v>16</v>
+      </c>
+      <c r="H136">
+        <v>60</v>
+      </c>
+      <c r="I136">
+        <v>64</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>420</v>
+      </c>
+      <c r="E137" s="1">
+        <v>178.1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>586</v>
+      </c>
+      <c r="G137">
+        <v>18</v>
+      </c>
+      <c r="H137">
+        <v>46</v>
+      </c>
+      <c r="I137">
+        <v>79</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>334</v>
+      </c>
+      <c r="C138">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="1">
+        <v>352.8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>587</v>
+      </c>
+      <c r="G138">
+        <v>12</v>
+      </c>
+      <c r="H138">
+        <v>64</v>
+      </c>
+      <c r="I138">
+        <v>71</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="s">
+        <v>335</v>
+      </c>
+      <c r="C139">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>443</v>
+      </c>
+      <c r="E139" s="1">
+        <v>104.85</v>
+      </c>
+      <c r="F139" t="s">
+        <v>588</v>
+      </c>
+      <c r="G139">
+        <v>13</v>
+      </c>
+      <c r="H139">
+        <v>62</v>
+      </c>
+      <c r="I139">
+        <v>71</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>336</v>
+      </c>
+      <c r="C140">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>444</v>
+      </c>
+      <c r="E140" s="1">
+        <v>327.35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>589</v>
+      </c>
+      <c r="G140">
+        <v>18</v>
+      </c>
+      <c r="H140">
+        <v>58</v>
+      </c>
+      <c r="I140">
+        <v>57</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="s">
+        <v>337</v>
+      </c>
+      <c r="C141">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>429</v>
+      </c>
+      <c r="E141" s="1">
+        <v>106.14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>590</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141">
+        <v>63</v>
+      </c>
+      <c r="I141">
+        <v>36</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s">
+        <v>338</v>
+      </c>
+      <c r="C142">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>445</v>
+      </c>
+      <c r="E142" s="1">
+        <v>98.19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>591</v>
+      </c>
+      <c r="G142">
+        <v>23</v>
+      </c>
+      <c r="H142">
+        <v>63</v>
+      </c>
+      <c r="I142">
+        <v>21</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C143">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>427</v>
+      </c>
+      <c r="E143" s="1">
+        <v>517.38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>592</v>
+      </c>
+      <c r="G143">
+        <v>20</v>
+      </c>
+      <c r="H143">
+        <v>52</v>
+      </c>
+      <c r="I143">
+        <v>43</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144">
+        <v>25</v>
+      </c>
+      <c r="D144" t="s">
+        <v>394</v>
+      </c>
+      <c r="E144" s="1">
+        <v>812.6900000000001</v>
+      </c>
+      <c r="F144" t="s">
+        <v>593</v>
+      </c>
+      <c r="G144">
+        <v>16</v>
+      </c>
+      <c r="H144">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>14</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>432</v>
+      </c>
+      <c r="E145" s="1">
+        <v>210.4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>495</v>
+      </c>
+      <c r="G145">
+        <v>16</v>
+      </c>
+      <c r="H145">
+        <v>69</v>
+      </c>
+      <c r="I145">
+        <v>29</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>342</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="D146" t="s">
+        <v>446</v>
+      </c>
+      <c r="E146" s="1">
+        <v>76.27</v>
+      </c>
+      <c r="F146" t="s">
+        <v>594</v>
+      </c>
+      <c r="G146">
+        <v>28</v>
+      </c>
+      <c r="H146">
+        <v>29</v>
+      </c>
+      <c r="I146">
+        <v>50</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>447</v>
+      </c>
+      <c r="E147" s="1">
+        <v>68.69</v>
+      </c>
+      <c r="F147" t="s">
+        <v>595</v>
+      </c>
+      <c r="G147">
+        <v>20</v>
+      </c>
+      <c r="H147">
+        <v>44</v>
+      </c>
+      <c r="I147">
+        <v>57</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>420</v>
+      </c>
+      <c r="E148" s="1">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F148" t="s">
+        <v>596</v>
+      </c>
+      <c r="G148">
+        <v>17</v>
+      </c>
+      <c r="H148">
+        <v>29</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>448</v>
+      </c>
+      <c r="E149" s="1">
+        <v>143.45</v>
+      </c>
+      <c r="F149" t="s">
+        <v>597</v>
+      </c>
+      <c r="G149">
+        <v>14</v>
+      </c>
+      <c r="H149">
+        <v>59</v>
+      </c>
+      <c r="I149">
+        <v>57</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>449</v>
+      </c>
+      <c r="E150" s="1">
+        <v>97.66</v>
+      </c>
+      <c r="F150" t="s">
+        <v>598</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+      <c r="H150">
+        <v>57</v>
+      </c>
+      <c r="I150">
+        <v>79</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>450</v>
+      </c>
+      <c r="E151" s="1">
+        <v>495.86</v>
+      </c>
+      <c r="F151" t="s">
+        <v>599</v>
+      </c>
+      <c r="G151">
+        <v>20</v>
+      </c>
+      <c r="H151">
+        <v>62</v>
+      </c>
+      <c r="I151">
+        <v>21</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152">
+        <v>24</v>
+      </c>
+      <c r="D152" t="s">
+        <v>438</v>
+      </c>
+      <c r="E152" s="1">
+        <v>801.4299999999999</v>
+      </c>
+      <c r="F152" t="s">
+        <v>600</v>
+      </c>
+      <c r="G152">
+        <v>18</v>
+      </c>
+      <c r="H152">
+        <v>54</v>
+      </c>
+      <c r="I152">
+        <v>43</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153">
+        <v>24</v>
+      </c>
+      <c r="D153" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" s="1">
+        <v>298.62</v>
+      </c>
+      <c r="F153" t="s">
+        <v>601</v>
+      </c>
+      <c r="G153">
+        <v>9</v>
+      </c>
+      <c r="H153">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>57</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" t="s">
+        <v>350</v>
+      </c>
+      <c r="C154">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>426</v>
+      </c>
+      <c r="E154" s="1">
+        <v>184.44</v>
+      </c>
+      <c r="F154" t="s">
+        <v>602</v>
+      </c>
+      <c r="G154">
+        <v>17</v>
+      </c>
+      <c r="H154">
+        <v>47</v>
+      </c>
+      <c r="I154">
+        <v>57</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155">
+        <v>23</v>
+      </c>
+      <c r="D155" t="s">
+        <v>451</v>
+      </c>
+      <c r="E155" s="1">
+        <v>472.89</v>
+      </c>
+      <c r="F155" t="s">
+        <v>603</v>
+      </c>
+      <c r="G155">
+        <v>14</v>
+      </c>
+      <c r="H155">
+        <v>63</v>
+      </c>
+      <c r="I155">
+        <v>36</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+      <c r="D156" t="s">
+        <v>452</v>
+      </c>
+      <c r="E156" s="1">
+        <v>95.34999999999999</v>
+      </c>
+      <c r="F156" t="s">
+        <v>604</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>76</v>
+      </c>
+      <c r="I156">
+        <v>64</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" t="s">
+        <v>353</v>
+      </c>
+      <c r="C157">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>436</v>
+      </c>
+      <c r="E157" s="1">
+        <v>484.07</v>
+      </c>
+      <c r="F157" t="s">
+        <v>605</v>
+      </c>
+      <c r="G157">
+        <v>14</v>
+      </c>
+      <c r="H157">
+        <v>48</v>
+      </c>
+      <c r="I157">
+        <v>64</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>354</v>
+      </c>
+      <c r="C158">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
+        <v>453</v>
+      </c>
+      <c r="E158" s="1">
+        <v>224.74</v>
+      </c>
+      <c r="F158" t="s">
+        <v>606</v>
+      </c>
+      <c r="G158">
+        <v>21</v>
+      </c>
+      <c r="H158">
+        <v>61</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>355</v>
+      </c>
+      <c r="C159">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s">
+        <v>416</v>
+      </c>
+      <c r="E159" s="1">
+        <v>467.92</v>
+      </c>
+      <c r="F159" t="s">
+        <v>607</v>
+      </c>
+      <c r="G159">
+        <v>28</v>
+      </c>
+      <c r="H159">
+        <v>31</v>
+      </c>
+      <c r="I159">
+        <v>21</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s">
+        <v>418</v>
+      </c>
+      <c r="E160" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="F160" t="s">
+        <v>608</v>
+      </c>
+      <c r="G160">
+        <v>13</v>
+      </c>
+      <c r="H160">
+        <v>68</v>
+      </c>
+      <c r="I160">
+        <v>21</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>391</v>
+      </c>
+      <c r="E161" s="1">
+        <v>111.26</v>
+      </c>
+      <c r="F161" t="s">
+        <v>609</v>
+      </c>
+      <c r="G161">
+        <v>21</v>
+      </c>
+      <c r="H161">
+        <v>35</v>
+      </c>
+      <c r="I161">
+        <v>43</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>407</v>
+      </c>
+      <c r="E162" s="1">
+        <v>243.55</v>
+      </c>
+      <c r="F162" t="s">
+        <v>610</v>
+      </c>
+      <c r="G162">
+        <v>13</v>
+      </c>
+      <c r="H162">
+        <v>71</v>
+      </c>
+      <c r="I162">
+        <v>14</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>359</v>
+      </c>
+      <c r="C163">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>434</v>
+      </c>
+      <c r="E163" s="1">
+        <v>205.48</v>
+      </c>
+      <c r="F163" t="s">
+        <v>611</v>
+      </c>
+      <c r="G163">
+        <v>34</v>
+      </c>
+      <c r="H163">
+        <v>27</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>430</v>
+      </c>
+      <c r="E164" s="1">
+        <v>375.34</v>
+      </c>
+      <c r="F164" t="s">
+        <v>612</v>
+      </c>
+      <c r="G164">
+        <v>21</v>
+      </c>
+      <c r="H164">
+        <v>48</v>
+      </c>
+      <c r="I164">
+        <v>14</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>454</v>
+      </c>
+      <c r="E165" s="1">
+        <v>224.24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>613</v>
+      </c>
+      <c r="G165">
+        <v>16</v>
+      </c>
+      <c r="H165">
+        <v>59</v>
+      </c>
+      <c r="I165">
+        <v>21</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>362</v>
+      </c>
+      <c r="C166">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>391</v>
+      </c>
+      <c r="E166" s="1">
+        <v>184.99</v>
+      </c>
+      <c r="F166" t="s">
+        <v>614</v>
+      </c>
+      <c r="G166">
+        <v>21</v>
+      </c>
+      <c r="H166">
+        <v>34</v>
+      </c>
+      <c r="I166">
+        <v>43</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>363</v>
+      </c>
+      <c r="C167">
+        <v>21</v>
+      </c>
+      <c r="D167" t="s">
+        <v>397</v>
+      </c>
+      <c r="E167" s="1">
+        <v>38.41</v>
+      </c>
+      <c r="F167" t="s">
+        <v>615</v>
+      </c>
+      <c r="G167">
+        <v>10</v>
+      </c>
+      <c r="H167">
+        <v>29</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>397</v>
+      </c>
+      <c r="E168" s="1">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="F168" t="s">
+        <v>616</v>
+      </c>
+      <c r="G168">
+        <v>9</v>
+      </c>
+      <c r="H168">
+        <v>55</v>
+      </c>
+      <c r="I168">
+        <v>57</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C169">
+        <v>21</v>
+      </c>
+      <c r="D169" t="s">
+        <v>418</v>
+      </c>
+      <c r="E169" s="1">
+        <v>203.45</v>
+      </c>
+      <c r="F169" t="s">
+        <v>547</v>
+      </c>
+      <c r="G169">
+        <v>23</v>
+      </c>
+      <c r="H169">
+        <v>27</v>
+      </c>
+      <c r="I169">
+        <v>43</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170">
+        <v>21</v>
+      </c>
+      <c r="D170" t="s">
+        <v>443</v>
+      </c>
+      <c r="E170" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="F170" t="s">
+        <v>617</v>
+      </c>
+      <c r="G170">
+        <v>6</v>
+      </c>
+      <c r="H170">
+        <v>46</v>
+      </c>
+      <c r="I170">
+        <v>86</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>367</v>
+      </c>
+      <c r="C171">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" s="1">
+        <v>340.1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>618</v>
+      </c>
+      <c r="G171">
+        <v>11</v>
+      </c>
+      <c r="H171">
+        <v>76</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172" t="s">
+        <v>397</v>
+      </c>
+      <c r="E172" s="1">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="F172" t="s">
+        <v>619</v>
+      </c>
+      <c r="G172">
+        <v>8</v>
+      </c>
+      <c r="H172">
+        <v>45</v>
+      </c>
+      <c r="I172">
+        <v>71</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>397</v>
+      </c>
+      <c r="E173" s="1">
+        <v>15.42</v>
+      </c>
+      <c r="F173" t="s">
+        <v>620</v>
+      </c>
+      <c r="G173">
+        <v>8</v>
+      </c>
+      <c r="H173">
+        <v>71</v>
+      </c>
+      <c r="I173">
+        <v>21</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>428</v>
+      </c>
+      <c r="E174" s="1">
+        <v>97.47</v>
+      </c>
+      <c r="F174" t="s">
+        <v>621</v>
+      </c>
+      <c r="G174">
+        <v>16</v>
+      </c>
+      <c r="H174">
+        <v>50</v>
+      </c>
+      <c r="I174">
+        <v>21</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>454</v>
+      </c>
+      <c r="E175" s="1">
+        <v>151.27</v>
+      </c>
+      <c r="F175" t="s">
+        <v>622</v>
+      </c>
+      <c r="G175">
+        <v>18</v>
+      </c>
+      <c r="H175">
+        <v>44</v>
+      </c>
+      <c r="I175">
+        <v>21</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>448</v>
+      </c>
+      <c r="E176" s="1">
+        <v>69.17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>623</v>
+      </c>
+      <c r="G176">
+        <v>12</v>
+      </c>
+      <c r="H176">
+        <v>59</v>
+      </c>
+      <c r="I176">
+        <v>21</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" t="s">
+        <v>373</v>
+      </c>
+      <c r="C177">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>397</v>
+      </c>
+      <c r="E177" s="1">
+        <v>48.45</v>
+      </c>
+      <c r="F177" t="s">
+        <v>624</v>
+      </c>
+      <c r="G177">
+        <v>7</v>
+      </c>
+      <c r="H177">
+        <v>36</v>
+      </c>
+      <c r="I177">
+        <v>86</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" t="s">
+        <v>374</v>
+      </c>
+      <c r="C178">
+        <v>19</v>
+      </c>
+      <c r="D178" t="s">
+        <v>391</v>
+      </c>
+      <c r="E178" s="1">
+        <v>290.18</v>
+      </c>
+      <c r="F178" t="s">
+        <v>625</v>
+      </c>
+      <c r="G178">
+        <v>13</v>
+      </c>
+      <c r="H178">
+        <v>36</v>
+      </c>
+      <c r="I178">
+        <v>57</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179">
+        <v>19</v>
+      </c>
+      <c r="D179" t="s">
+        <v>398</v>
+      </c>
+      <c r="E179" s="1">
+        <v>160.92</v>
+      </c>
+      <c r="F179" t="s">
+        <v>626</v>
+      </c>
+      <c r="G179">
+        <v>15</v>
+      </c>
+      <c r="H179">
+        <v>45</v>
+      </c>
+      <c r="I179">
+        <v>21</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>376</v>
+      </c>
+      <c r="C180">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>397</v>
+      </c>
+      <c r="E180" s="1">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F180" t="s">
+        <v>627</v>
+      </c>
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180">
+        <v>27</v>
+      </c>
+      <c r="I180">
+        <v>100</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" s="1">
+        <v>119.93</v>
+      </c>
+      <c r="F181" t="s">
+        <v>547</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>52</v>
+      </c>
+      <c r="I181">
+        <v>64</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>442</v>
+      </c>
+      <c r="E182" s="1">
+        <v>94.42</v>
+      </c>
+      <c r="F182" t="s">
+        <v>628</v>
+      </c>
+      <c r="G182">
+        <v>11</v>
+      </c>
+      <c r="H182">
+        <v>36</v>
+      </c>
+      <c r="I182">
+        <v>36</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>452</v>
+      </c>
+      <c r="E183" s="1">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F183" t="s">
+        <v>629</v>
+      </c>
+      <c r="G183">
+        <v>9</v>
+      </c>
+      <c r="H183">
+        <v>38</v>
+      </c>
+      <c r="I183">
+        <v>36</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>393</v>
+      </c>
+      <c r="E184" s="1">
+        <v>118.82</v>
+      </c>
+      <c r="F184" t="s">
+        <v>630</v>
+      </c>
+      <c r="G184">
+        <v>8</v>
+      </c>
+      <c r="H184">
+        <v>23</v>
+      </c>
+      <c r="I184">
+        <v>71</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>381</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>413</v>
+      </c>
+      <c r="E185" s="1">
+        <v>188.49</v>
+      </c>
+      <c r="F185" t="s">
+        <v>631</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>48</v>
+      </c>
+      <c r="I185">
+        <v>57</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>382</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>397</v>
+      </c>
+      <c r="E186" s="1">
+        <v>14.67</v>
+      </c>
+      <c r="F186" t="s">
+        <v>632</v>
+      </c>
+      <c r="G186">
+        <v>5</v>
+      </c>
+      <c r="H186">
+        <v>35</v>
+      </c>
+      <c r="I186">
+        <v>57</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>422</v>
+      </c>
+      <c r="E187" s="1">
+        <v>131.22</v>
+      </c>
+      <c r="F187" t="s">
+        <v>633</v>
+      </c>
+      <c r="G187">
+        <v>8</v>
+      </c>
+      <c r="H187">
+        <v>25</v>
+      </c>
+      <c r="I187">
+        <v>57</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>455</v>
+      </c>
+      <c r="E188" s="1">
+        <v>469.65</v>
+      </c>
+      <c r="F188" t="s">
+        <v>634</v>
+      </c>
+      <c r="G188">
+        <v>16</v>
+      </c>
+      <c r="H188">
+        <v>26</v>
+      </c>
+      <c r="I188">
+        <v>14</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>385</v>
+      </c>
+      <c r="C189">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>443</v>
+      </c>
+      <c r="E189" s="1">
+        <v>143.01</v>
+      </c>
+      <c r="F189" t="s">
+        <v>635</v>
+      </c>
+      <c r="G189">
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>38</v>
+      </c>
+      <c r="I189">
+        <v>43</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>386</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>443</v>
+      </c>
+      <c r="E190" s="1">
+        <v>728.98</v>
+      </c>
+      <c r="F190" t="s">
+        <v>636</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>28</v>
+      </c>
+      <c r="I190">
+        <v>57</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>387</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>414</v>
+      </c>
+      <c r="E191" s="1">
+        <v>405.89</v>
+      </c>
+      <c r="F191" t="s">
+        <v>637</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>18</v>
+      </c>
+      <c r="I191">
+        <v>36</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>388</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" s="1">
+        <v>233.06</v>
+      </c>
+      <c r="F192" t="s">
+        <v>638</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192">
+        <v>11</v>
+      </c>
+      <c r="I192">
+        <v>71</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" t="s">
+        <v>389</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>414</v>
+      </c>
+      <c r="E193" s="1">
+        <v>107.9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>639</v>
+      </c>
+      <c r="G193">
+        <v>8</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>21</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>391</v>
+      </c>
+      <c r="E194" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="F194" t="s">
+        <v>640</v>
+      </c>
+      <c r="G194">
+        <v>11</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C13">
+  <conditionalFormatting sqref="C1:C194">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1124,7 +8824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,10 +8837,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>642</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -1148,10 +8848,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>643</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1159,10 +8859,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>644</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1170,21 +8870,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>645</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>646</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -1192,43 +8892,43 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>647</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>648</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>649</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>650</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1236,24 +8936,464 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>651</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>652</v>
       </c>
       <c r="C11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +9406,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1274,35 +9414,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>695</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>51.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>48.58</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +9444,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1323,46 +9452,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>44.32</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>696</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>19.73</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>696</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>35.95</v>
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>51.9</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +9526,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1383,68 +9534,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>4.91</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4.74</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>25.41</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>63.85</v>
+      <c r="C9">
+        <v>35.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +9652,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1465,46 +9660,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>49.5</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>21.46</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>29.04</v>
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>56.63</v>
       </c>
     </row>
   </sheetData>
@@ -1525,124 +9753,124 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>699</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>700</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>701</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>703</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>704</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>705</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>695</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>706</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>695</v>
       </c>
       <c r="B2">
-        <v>0.77</v>
+        <v>-0.1</v>
       </c>
       <c r="C2">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>-1.82</v>
       </c>
       <c r="E2">
-        <v>6.29</v>
+        <v>14.84</v>
       </c>
       <c r="F2">
-        <v>-0.37</v>
+        <v>-0.43</v>
       </c>
       <c r="G2">
         <v>249</v>
       </c>
       <c r="H2">
-        <v>1.37</v>
+        <v>-0.23</v>
       </c>
       <c r="I2">
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>1.94</v>
+        <v>-0.18</v>
       </c>
       <c r="K2">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>696</v>
       </c>
       <c r="B3">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="C3">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="D3">
-        <v>0.9399999999999999</v>
+        <v>-0.91</v>
       </c>
       <c r="E3">
-        <v>8.42</v>
+        <v>5.12</v>
       </c>
       <c r="F3">
-        <v>-0.28</v>
+        <v>-0.11</v>
       </c>
       <c r="G3">
         <v>249</v>
       </c>
       <c r="H3">
-        <v>1.75</v>
+        <v>3.56</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
       <c r="J3">
-        <v>2.86</v>
+        <v>4.91</v>
       </c>
       <c r="K3">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="C4">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D4">
-        <v>0.49</v>
+        <v>-0.68</v>
       </c>
       <c r="E4">
-        <v>11.11</v>
+        <v>6.66</v>
       </c>
       <c r="F4">
         <v>-0.09</v>
@@ -1651,51 +9879,51 @@
         <v>249</v>
       </c>
       <c r="H4">
-        <v>0.65</v>
+        <v>2.31</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="J4">
-        <v>1.14</v>
+        <v>3.41</v>
       </c>
       <c r="K4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>698</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="C5">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="D5">
-        <v>0.95</v>
+        <v>-1.05</v>
       </c>
       <c r="E5">
-        <v>9.210000000000001</v>
+        <v>5.72</v>
       </c>
       <c r="F5">
-        <v>-0.27</v>
+        <v>-0.1</v>
       </c>
       <c r="G5">
         <v>249</v>
       </c>
       <c r="H5">
-        <v>1.74</v>
+        <v>3.65</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
